--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11565" activeTab="3"/>
+    <workbookView windowWidth="21765" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lab" sheetId="1" r:id="rId1"/>
@@ -834,14 +834,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,12 +886,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -977,15 +971,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1005,6 +1002,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1013,14 +1033,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,106 +1121,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,7 +1191,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,31 +1227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,7 +1263,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,25 +1311,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,67 +1347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,16 +1456,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,21 +1487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1559,6 +1520,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1567,152 +1537,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1729,120 +1699,115 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="58" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="176" fontId="20" fillId="8" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="176" fontId="20" fillId="9" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="177" fontId="20" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="19" fillId="8" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="177" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
@@ -2213,2070 +2178,2070 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" ht="21" spans="1:5">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" ht="21" spans="1:5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" s="43" customFormat="true" ht="21" spans="1:5">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="51">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" s="42" customFormat="true" ht="21" spans="1:5">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="48">
         <v>44060</v>
       </c>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" s="43" customFormat="true" ht="21" spans="1:5">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="52" t="s">
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" s="42" customFormat="true" ht="21" spans="1:5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="53" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="60">
         <v>44108</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="61">
         <v>44139</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="62">
         <v>44144</v>
       </c>
     </row>
-    <row r="7" s="50" customFormat="true" ht="28.5" spans="1:8">
-      <c r="A7" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="55" t="s">
+    <row r="7" s="47" customFormat="true" ht="28.5" spans="1:8">
+      <c r="A7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="69" t="s">
+      <c r="G7" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="66" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="57">
+      <c r="A8" s="54">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="56">
         <v>1</v>
       </c>
-      <c r="E8" s="70">
-        <v>2</v>
-      </c>
-      <c r="F8" s="71">
+      <c r="E8" s="67">
+        <v>2</v>
+      </c>
+      <c r="F8" s="68">
         <v>15</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="69">
         <v>8</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="57">
-        <v>2</v>
-      </c>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="54">
+        <v>2</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="57">
         <v>1</v>
       </c>
-      <c r="E9" s="74">
-        <v>2</v>
-      </c>
-      <c r="F9" s="71">
+      <c r="E9" s="71">
+        <v>2</v>
+      </c>
+      <c r="F9" s="68">
         <v>11</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="69">
         <v>9</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="57">
+      <c r="A10" s="54">
         <v>3</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="57">
         <v>1</v>
       </c>
-      <c r="E10" s="74">
-        <v>2</v>
-      </c>
-      <c r="F10" s="71">
+      <c r="E10" s="71">
+        <v>2</v>
+      </c>
+      <c r="F10" s="68">
         <v>15</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="69">
         <v>8</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="57">
-        <v>4</v>
-      </c>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="54">
+        <v>4</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="57">
         <v>1</v>
       </c>
-      <c r="E11" s="74">
-        <v>2</v>
-      </c>
-      <c r="F11" s="71">
+      <c r="E11" s="71">
+        <v>2</v>
+      </c>
+      <c r="F11" s="68">
         <v>15</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="69">
         <v>9</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="57">
-        <v>5</v>
-      </c>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="54">
+        <v>5</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="60">
-        <v>2</v>
-      </c>
-      <c r="E12" s="74">
+      <c r="D12" s="57">
+        <v>2</v>
+      </c>
+      <c r="E12" s="71">
         <v>0</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="68">
         <v>11</v>
       </c>
-      <c r="G12" s="72">
-        <v>10</v>
-      </c>
-      <c r="H12" s="73">
+      <c r="G12" s="69">
+        <v>10</v>
+      </c>
+      <c r="H12" s="70">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="57">
+      <c r="A13" s="54">
         <v>6</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="57">
         <v>1.5</v>
       </c>
-      <c r="E13" s="74">
-        <v>2</v>
-      </c>
-      <c r="F13" s="71">
+      <c r="E13" s="71">
+        <v>2</v>
+      </c>
+      <c r="F13" s="68">
         <v>14</v>
       </c>
-      <c r="G13" s="72">
-        <v>10</v>
-      </c>
-      <c r="H13" s="73">
+      <c r="G13" s="69">
+        <v>10</v>
+      </c>
+      <c r="H13" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="57">
+      <c r="A14" s="54">
         <v>7</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="57">
         <v>1</v>
       </c>
-      <c r="E14" s="74">
-        <v>2</v>
-      </c>
-      <c r="F14" s="71">
-        <v>5</v>
-      </c>
-      <c r="G14" s="72">
+      <c r="E14" s="71">
+        <v>2</v>
+      </c>
+      <c r="F14" s="68">
+        <v>5</v>
+      </c>
+      <c r="G14" s="69">
         <v>8</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="57">
+      <c r="A15" s="54">
         <v>8</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="57">
         <v>1</v>
       </c>
-      <c r="E15" s="74">
-        <v>2</v>
-      </c>
-      <c r="F15" s="71">
+      <c r="E15" s="71">
+        <v>2</v>
+      </c>
+      <c r="F15" s="68">
         <v>12</v>
       </c>
-      <c r="G15" s="72">
-        <v>5</v>
-      </c>
-      <c r="H15" s="73">
+      <c r="G15" s="69">
+        <v>5</v>
+      </c>
+      <c r="H15" s="70">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="57">
+      <c r="A16" s="54">
         <v>9</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="71">
         <v>0</v>
       </c>
-      <c r="F16" s="71">
-        <v>5</v>
-      </c>
-      <c r="G16" s="72">
-        <v>10</v>
-      </c>
-      <c r="H16" s="73">
+      <c r="F16" s="68">
+        <v>5</v>
+      </c>
+      <c r="G16" s="69">
+        <v>10</v>
+      </c>
+      <c r="H16" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="57">
-        <v>10</v>
-      </c>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="54">
+        <v>10</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="60">
-        <v>2</v>
-      </c>
-      <c r="E17" s="74">
-        <v>2</v>
-      </c>
-      <c r="F17" s="71">
+      <c r="D17" s="57">
+        <v>2</v>
+      </c>
+      <c r="E17" s="71">
+        <v>2</v>
+      </c>
+      <c r="F17" s="68">
         <v>14</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="69">
         <v>9</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="70">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="57">
+      <c r="A18" s="54">
         <v>11</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="60">
-        <v>2</v>
-      </c>
-      <c r="E18" s="74">
-        <v>2</v>
-      </c>
-      <c r="F18" s="71">
+      <c r="D18" s="57">
+        <v>2</v>
+      </c>
+      <c r="E18" s="71">
+        <v>2</v>
+      </c>
+      <c r="F18" s="68">
         <v>15</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="69">
         <v>8</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="57">
+      <c r="A19" s="54">
         <v>12</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="60">
-        <v>2</v>
-      </c>
-      <c r="E19" s="74">
-        <v>2</v>
-      </c>
-      <c r="F19" s="71">
+      <c r="D19" s="57">
+        <v>2</v>
+      </c>
+      <c r="E19" s="71">
+        <v>2</v>
+      </c>
+      <c r="F19" s="68">
         <v>15</v>
       </c>
-      <c r="G19" s="72">
-        <v>10</v>
-      </c>
-      <c r="H19" s="73">
+      <c r="G19" s="69">
+        <v>10</v>
+      </c>
+      <c r="H19" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="57">
+      <c r="A20" s="54">
         <v>13</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="57">
         <v>1.5</v>
       </c>
-      <c r="E20" s="74">
-        <v>2</v>
-      </c>
-      <c r="F20" s="71">
+      <c r="E20" s="71">
+        <v>2</v>
+      </c>
+      <c r="F20" s="68">
         <v>9</v>
       </c>
-      <c r="G20" s="72">
-        <v>10</v>
-      </c>
-      <c r="H20" s="73">
+      <c r="G20" s="69">
+        <v>10</v>
+      </c>
+      <c r="H20" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="57">
+      <c r="A21" s="54">
         <v>14</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="60">
-        <v>2</v>
-      </c>
-      <c r="E21" s="74">
-        <v>2</v>
-      </c>
-      <c r="F21" s="71">
-        <v>5</v>
-      </c>
-      <c r="G21" s="72">
-        <v>10</v>
-      </c>
-      <c r="H21" s="73">
+      <c r="D21" s="57">
+        <v>2</v>
+      </c>
+      <c r="E21" s="71">
+        <v>2</v>
+      </c>
+      <c r="F21" s="68">
+        <v>5</v>
+      </c>
+      <c r="G21" s="69">
+        <v>10</v>
+      </c>
+      <c r="H21" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="57">
+      <c r="A22" s="54">
         <v>15</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="60">
-        <v>2</v>
-      </c>
-      <c r="E22" s="74">
-        <v>2</v>
-      </c>
-      <c r="F22" s="71">
+      <c r="D22" s="57">
+        <v>2</v>
+      </c>
+      <c r="E22" s="71">
+        <v>2</v>
+      </c>
+      <c r="F22" s="68">
         <v>11</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="69">
         <v>7</v>
       </c>
-      <c r="H22" s="73">
+      <c r="H22" s="70">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="57">
+      <c r="A23" s="54">
         <v>16</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="57">
         <v>1.5</v>
       </c>
-      <c r="E23" s="74">
-        <v>2</v>
-      </c>
-      <c r="F23" s="71">
-        <v>4</v>
-      </c>
-      <c r="G23" s="72">
+      <c r="E23" s="71">
+        <v>2</v>
+      </c>
+      <c r="F23" s="68">
+        <v>4</v>
+      </c>
+      <c r="G23" s="69">
         <v>8</v>
       </c>
-      <c r="H23" s="73">
+      <c r="H23" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="57">
+      <c r="A24" s="54">
         <v>17</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="57">
         <v>1.5</v>
       </c>
-      <c r="E24" s="74">
-        <v>2</v>
-      </c>
-      <c r="F24" s="71">
+      <c r="E24" s="71">
+        <v>2</v>
+      </c>
+      <c r="F24" s="68">
         <v>9</v>
       </c>
-      <c r="G24" s="72">
-        <v>10</v>
-      </c>
-      <c r="H24" s="73">
+      <c r="G24" s="69">
+        <v>10</v>
+      </c>
+      <c r="H24" s="70">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="57">
+      <c r="A25" s="54">
         <v>18</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="57">
         <v>1.5</v>
       </c>
-      <c r="E25" s="74">
-        <v>2</v>
-      </c>
-      <c r="F25" s="71">
-        <v>4</v>
-      </c>
-      <c r="G25" s="72">
+      <c r="E25" s="71">
+        <v>2</v>
+      </c>
+      <c r="F25" s="68">
+        <v>4</v>
+      </c>
+      <c r="G25" s="69">
         <v>8</v>
       </c>
-      <c r="H25" s="73">
+      <c r="H25" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="57">
+      <c r="A26" s="54">
         <v>19</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="60">
-        <v>2</v>
-      </c>
-      <c r="E26" s="74">
-        <v>2</v>
-      </c>
-      <c r="F26" s="71">
+      <c r="D26" s="57">
+        <v>2</v>
+      </c>
+      <c r="E26" s="71">
+        <v>2</v>
+      </c>
+      <c r="F26" s="68">
         <v>6</v>
       </c>
-      <c r="G26" s="72">
+      <c r="G26" s="69">
         <v>7</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="57">
+      <c r="A27" s="54">
         <v>20</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="57">
         <v>1.5</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="71">
         <v>0</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="68">
         <v>9</v>
       </c>
-      <c r="G27" s="72">
+      <c r="G27" s="69">
         <v>8</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="57">
+      <c r="A28" s="54">
         <v>21</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="60">
-        <v>2</v>
-      </c>
-      <c r="E28" s="74">
-        <v>2</v>
-      </c>
-      <c r="F28" s="71">
+      <c r="D28" s="57">
+        <v>2</v>
+      </c>
+      <c r="E28" s="71">
+        <v>2</v>
+      </c>
+      <c r="F28" s="68">
         <v>11</v>
       </c>
-      <c r="G28" s="72">
-        <v>10</v>
-      </c>
-      <c r="H28" s="73">
+      <c r="G28" s="69">
+        <v>10</v>
+      </c>
+      <c r="H28" s="70">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="57">
+      <c r="A29" s="54">
         <v>22</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="60">
-        <v>2</v>
-      </c>
-      <c r="E29" s="74">
-        <v>2</v>
-      </c>
-      <c r="F29" s="71">
+      <c r="D29" s="57">
+        <v>2</v>
+      </c>
+      <c r="E29" s="71">
+        <v>2</v>
+      </c>
+      <c r="F29" s="68">
         <v>14</v>
       </c>
-      <c r="G29" s="72">
-        <v>4</v>
-      </c>
-      <c r="H29" s="73">
+      <c r="G29" s="69">
+        <v>4</v>
+      </c>
+      <c r="H29" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="57">
+      <c r="A30" s="54">
         <v>23</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="57">
         <v>1.5</v>
       </c>
-      <c r="E30" s="74">
-        <v>2</v>
-      </c>
-      <c r="F30" s="71">
+      <c r="E30" s="71">
+        <v>2</v>
+      </c>
+      <c r="F30" s="68">
         <v>11</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="69">
         <v>7</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="57">
+      <c r="A31" s="54">
         <v>24</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="57">
         <v>1.5</v>
       </c>
-      <c r="E31" s="74">
-        <v>2</v>
-      </c>
-      <c r="F31" s="71">
+      <c r="E31" s="71">
+        <v>2</v>
+      </c>
+      <c r="F31" s="68">
         <v>8</v>
       </c>
-      <c r="G31" s="72">
-        <v>10</v>
-      </c>
-      <c r="H31" s="73">
+      <c r="G31" s="69">
+        <v>10</v>
+      </c>
+      <c r="H31" s="70">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="57">
+      <c r="A32" s="54">
         <v>25</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="57">
         <v>1.5</v>
       </c>
-      <c r="E32" s="74">
-        <v>2</v>
-      </c>
-      <c r="F32" s="71">
-        <v>4</v>
-      </c>
-      <c r="G32" s="72">
-        <v>10</v>
-      </c>
-      <c r="H32" s="73">
+      <c r="E32" s="71">
+        <v>2</v>
+      </c>
+      <c r="F32" s="68">
+        <v>4</v>
+      </c>
+      <c r="G32" s="69">
+        <v>10</v>
+      </c>
+      <c r="H32" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="57">
+      <c r="A33" s="54">
         <v>26</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="60">
-        <v>2</v>
-      </c>
-      <c r="E33" s="75">
-        <v>2</v>
-      </c>
-      <c r="F33" s="71">
+      <c r="D33" s="57">
+        <v>2</v>
+      </c>
+      <c r="E33" s="72">
+        <v>2</v>
+      </c>
+      <c r="F33" s="68">
         <v>9</v>
       </c>
-      <c r="G33" s="76" t="s">
+      <c r="G33" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="73">
+      <c r="H33" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="57">
+      <c r="A34" s="54">
         <v>27</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="60">
-        <v>2</v>
-      </c>
-      <c r="E34" s="75">
+      <c r="D34" s="57">
+        <v>2</v>
+      </c>
+      <c r="E34" s="72">
         <v>1.5</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="68">
         <v>10.5</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="73">
         <v>6</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="57">
+      <c r="A35" s="54">
         <v>28</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="57">
         <v>1.5</v>
       </c>
-      <c r="E35" s="75">
+      <c r="E35" s="72">
         <v>1.5</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="68">
         <v>11.5</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="73">
         <v>8</v>
       </c>
-      <c r="H35" s="73">
+      <c r="H35" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="57">
+      <c r="A36" s="54">
         <v>29</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="60">
-        <v>2</v>
-      </c>
-      <c r="E36" s="75">
-        <v>2</v>
-      </c>
-      <c r="F36" s="71">
+      <c r="D36" s="57">
+        <v>2</v>
+      </c>
+      <c r="E36" s="72">
+        <v>2</v>
+      </c>
+      <c r="F36" s="68">
         <v>13</v>
       </c>
-      <c r="G36" s="76">
-        <v>10</v>
-      </c>
-      <c r="H36" s="73">
+      <c r="G36" s="73">
+        <v>10</v>
+      </c>
+      <c r="H36" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="57">
+      <c r="A37" s="54">
         <v>30</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="57">
         <v>1</v>
       </c>
-      <c r="E37" s="75">
+      <c r="E37" s="72">
         <v>1.5</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="68">
         <v>12</v>
       </c>
-      <c r="G37" s="76">
+      <c r="G37" s="73">
         <v>8</v>
       </c>
-      <c r="H37" s="73">
+      <c r="H37" s="70">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="57">
+      <c r="A38" s="54">
         <v>31</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="57">
         <v>1.5</v>
       </c>
-      <c r="E38" s="75">
-        <v>2</v>
-      </c>
-      <c r="F38" s="71">
+      <c r="E38" s="72">
+        <v>2</v>
+      </c>
+      <c r="F38" s="68">
         <v>0</v>
       </c>
-      <c r="G38" s="76">
-        <v>10</v>
-      </c>
-      <c r="H38" s="73" t="s">
+      <c r="G38" s="73">
+        <v>10</v>
+      </c>
+      <c r="H38" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="57">
+      <c r="A39" s="54">
         <v>32</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="60">
-        <v>2</v>
-      </c>
-      <c r="E39" s="75">
-        <v>2</v>
-      </c>
-      <c r="F39" s="71">
+      <c r="D39" s="57">
+        <v>2</v>
+      </c>
+      <c r="E39" s="72">
+        <v>2</v>
+      </c>
+      <c r="F39" s="68">
         <v>8</v>
       </c>
-      <c r="G39" s="76">
-        <v>10</v>
-      </c>
-      <c r="H39" s="73">
+      <c r="G39" s="73">
+        <v>10</v>
+      </c>
+      <c r="H39" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="57">
+      <c r="A40" s="54">
         <v>33</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="60">
-        <v>2</v>
-      </c>
-      <c r="E40" s="75">
-        <v>2</v>
-      </c>
-      <c r="F40" s="71">
+      <c r="D40" s="57">
+        <v>2</v>
+      </c>
+      <c r="E40" s="72">
+        <v>2</v>
+      </c>
+      <c r="F40" s="68">
         <v>12</v>
       </c>
-      <c r="G40" s="76">
-        <v>10</v>
-      </c>
-      <c r="H40" s="73">
+      <c r="G40" s="73">
+        <v>10</v>
+      </c>
+      <c r="H40" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="57">
+      <c r="A41" s="54">
         <v>34</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="75"/>
-      <c r="F41" s="71">
-        <v>10</v>
-      </c>
-      <c r="G41" s="76">
+      <c r="E41" s="72"/>
+      <c r="F41" s="68">
+        <v>10</v>
+      </c>
+      <c r="G41" s="73">
         <v>6</v>
       </c>
-      <c r="H41" s="73">
+      <c r="H41" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="57">
+      <c r="A42" s="54">
         <v>35</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="57">
         <v>1.5</v>
       </c>
-      <c r="E42" s="75">
-        <v>2</v>
-      </c>
-      <c r="F42" s="71">
+      <c r="E42" s="72">
+        <v>2</v>
+      </c>
+      <c r="F42" s="68">
         <v>13</v>
       </c>
-      <c r="G42" s="76">
+      <c r="G42" s="73">
         <v>7</v>
       </c>
-      <c r="H42" s="73">
+      <c r="H42" s="70">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="57">
+      <c r="A43" s="54">
         <v>36</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="60">
-        <v>2</v>
-      </c>
-      <c r="E43" s="75">
-        <v>2</v>
-      </c>
-      <c r="F43" s="71">
+      <c r="D43" s="57">
+        <v>2</v>
+      </c>
+      <c r="E43" s="72">
+        <v>2</v>
+      </c>
+      <c r="F43" s="68">
         <v>6</v>
       </c>
-      <c r="G43" s="76">
+      <c r="G43" s="73">
         <v>7</v>
       </c>
-      <c r="H43" s="73">
+      <c r="H43" s="70">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="57">
+      <c r="A44" s="54">
         <v>37</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="60">
-        <v>2</v>
-      </c>
-      <c r="E44" s="75">
+      <c r="D44" s="57">
+        <v>2</v>
+      </c>
+      <c r="E44" s="72">
         <v>1.5</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F44" s="68">
         <v>11</v>
       </c>
-      <c r="G44" s="76">
+      <c r="G44" s="73">
         <v>9</v>
       </c>
-      <c r="H44" s="73">
+      <c r="H44" s="70">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="57">
+      <c r="A45" s="54">
         <v>38</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="60">
-        <v>2</v>
-      </c>
-      <c r="E45" s="75">
+      <c r="D45" s="57">
+        <v>2</v>
+      </c>
+      <c r="E45" s="72">
         <v>1.5</v>
       </c>
-      <c r="F45" s="71">
+      <c r="F45" s="68">
         <v>12</v>
       </c>
-      <c r="G45" s="76">
-        <v>10</v>
-      </c>
-      <c r="H45" s="73">
+      <c r="G45" s="73">
+        <v>10</v>
+      </c>
+      <c r="H45" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="57">
+      <c r="A46" s="54">
         <v>39</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="60">
-        <v>2</v>
-      </c>
-      <c r="E46" s="75">
+      <c r="D46" s="57">
+        <v>2</v>
+      </c>
+      <c r="E46" s="72">
         <v>1.5</v>
       </c>
-      <c r="F46" s="71">
+      <c r="F46" s="68">
         <v>11</v>
       </c>
-      <c r="G46" s="76">
+      <c r="G46" s="73">
         <v>9</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="57">
+      <c r="A47" s="54">
         <v>40</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="60">
-        <v>2</v>
-      </c>
-      <c r="E47" s="75">
-        <v>2</v>
-      </c>
-      <c r="F47" s="71">
+      <c r="D47" s="57">
+        <v>2</v>
+      </c>
+      <c r="E47" s="72">
+        <v>2</v>
+      </c>
+      <c r="F47" s="68">
         <v>12.5</v>
       </c>
-      <c r="G47" s="76">
-        <v>10</v>
-      </c>
-      <c r="H47" s="73">
+      <c r="G47" s="73">
+        <v>10</v>
+      </c>
+      <c r="H47" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="57">
+      <c r="A48" s="54">
         <v>41</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="60">
-        <v>2</v>
-      </c>
-      <c r="E48" s="75">
-        <v>2</v>
-      </c>
-      <c r="F48" s="71">
+      <c r="D48" s="57">
+        <v>2</v>
+      </c>
+      <c r="E48" s="72">
+        <v>2</v>
+      </c>
+      <c r="F48" s="68">
         <v>11</v>
       </c>
-      <c r="G48" s="76">
+      <c r="G48" s="73">
         <v>8</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="70">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="57">
+      <c r="A49" s="54">
         <v>42</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="60">
-        <v>2</v>
-      </c>
-      <c r="E49" s="75">
-        <v>2</v>
-      </c>
-      <c r="F49" s="71">
+      <c r="D49" s="57">
+        <v>2</v>
+      </c>
+      <c r="E49" s="72">
+        <v>2</v>
+      </c>
+      <c r="F49" s="68">
         <v>14.5</v>
       </c>
-      <c r="G49" s="76">
-        <v>10</v>
-      </c>
-      <c r="H49" s="73">
+      <c r="G49" s="73">
+        <v>10</v>
+      </c>
+      <c r="H49" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="57">
+      <c r="A50" s="54">
         <v>43</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="57">
         <v>1.5</v>
       </c>
-      <c r="E50" s="75">
+      <c r="E50" s="72">
         <v>1.5</v>
       </c>
-      <c r="F50" s="71">
+      <c r="F50" s="68">
         <v>11.5</v>
       </c>
-      <c r="G50" s="76">
+      <c r="G50" s="73">
         <v>7</v>
       </c>
-      <c r="H50" s="73">
+      <c r="H50" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="57">
+      <c r="A51" s="54">
         <v>44</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="60">
+      <c r="D51" s="57">
         <v>1.5</v>
       </c>
-      <c r="E51" s="75">
+      <c r="E51" s="72">
         <v>1.5</v>
       </c>
-      <c r="F51" s="71">
-        <v>10</v>
-      </c>
-      <c r="G51" s="76">
+      <c r="F51" s="68">
+        <v>10</v>
+      </c>
+      <c r="G51" s="73">
         <v>8</v>
       </c>
-      <c r="H51" s="73">
+      <c r="H51" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="57">
+      <c r="A52" s="54">
         <v>45</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="60">
+      <c r="D52" s="57">
         <v>1.5</v>
       </c>
-      <c r="E52" s="75">
+      <c r="E52" s="72">
         <v>1.5</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="68">
         <v>12</v>
       </c>
-      <c r="G52" s="76">
-        <v>10</v>
-      </c>
-      <c r="H52" s="73">
+      <c r="G52" s="73">
+        <v>10</v>
+      </c>
+      <c r="H52" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="57">
+      <c r="A53" s="54">
         <v>46</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="57">
         <v>1.5</v>
       </c>
-      <c r="E53" s="75">
+      <c r="E53" s="72">
         <v>1.5</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53" s="68">
         <v>14</v>
       </c>
-      <c r="G53" s="76">
+      <c r="G53" s="73">
         <v>7</v>
       </c>
-      <c r="H53" s="73">
+      <c r="H53" s="70">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="57">
+      <c r="A54" s="54">
         <v>47</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54" s="57">
         <v>1.5</v>
       </c>
-      <c r="E54" s="75">
-        <v>2</v>
-      </c>
-      <c r="F54" s="71">
+      <c r="E54" s="72">
+        <v>2</v>
+      </c>
+      <c r="F54" s="68">
         <v>9</v>
       </c>
-      <c r="G54" s="76">
+      <c r="G54" s="73">
         <v>7</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="70">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="57">
+      <c r="A55" s="54">
         <v>48</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="57">
         <v>1.5</v>
       </c>
-      <c r="E55" s="75">
+      <c r="E55" s="72">
         <v>1.5</v>
       </c>
-      <c r="F55" s="71">
-        <v>5</v>
-      </c>
-      <c r="G55" s="76">
+      <c r="F55" s="68">
+        <v>5</v>
+      </c>
+      <c r="G55" s="73">
         <v>9</v>
       </c>
-      <c r="H55" s="73">
+      <c r="H55" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="57">
+      <c r="A56" s="54">
         <v>49</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="60">
-        <v>2</v>
-      </c>
-      <c r="E56" s="75">
+      <c r="D56" s="57">
+        <v>2</v>
+      </c>
+      <c r="E56" s="72">
         <v>1.5</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="68">
         <v>12</v>
       </c>
-      <c r="G56" s="76">
-        <v>10</v>
-      </c>
-      <c r="H56" s="73">
+      <c r="G56" s="73">
+        <v>10</v>
+      </c>
+      <c r="H56" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="57">
+      <c r="A57" s="54">
         <v>50</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="60">
+      <c r="D57" s="57">
         <v>1.5</v>
       </c>
-      <c r="E57" s="75">
-        <v>2</v>
-      </c>
-      <c r="F57" s="71">
+      <c r="E57" s="72">
+        <v>2</v>
+      </c>
+      <c r="F57" s="68">
         <v>12.5</v>
       </c>
-      <c r="G57" s="76">
-        <v>10</v>
-      </c>
-      <c r="H57" s="73">
+      <c r="G57" s="73">
+        <v>10</v>
+      </c>
+      <c r="H57" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="61">
+      <c r="A58" s="58">
         <v>51</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="60">
-        <v>2</v>
-      </c>
-      <c r="E58" s="74">
-        <v>2</v>
-      </c>
-      <c r="F58" s="71">
+      <c r="D58" s="57">
+        <v>2</v>
+      </c>
+      <c r="E58" s="71">
+        <v>2</v>
+      </c>
+      <c r="F58" s="68">
         <v>15</v>
       </c>
-      <c r="G58" s="77">
-        <v>10</v>
-      </c>
-      <c r="H58" s="78">
+      <c r="G58" s="74">
+        <v>10</v>
+      </c>
+      <c r="H58" s="75">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="57">
+      <c r="A59" s="54">
         <v>52</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="60">
+      <c r="D59" s="57">
         <v>1.5</v>
       </c>
-      <c r="E59" s="74">
-        <v>2</v>
-      </c>
-      <c r="F59" s="71">
+      <c r="E59" s="71">
+        <v>2</v>
+      </c>
+      <c r="F59" s="68">
         <v>14</v>
       </c>
-      <c r="G59" s="77">
+      <c r="G59" s="74">
         <v>7</v>
       </c>
-      <c r="H59" s="78">
+      <c r="H59" s="75">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="57">
+      <c r="A60" s="54">
         <v>53</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="60">
+      <c r="D60" s="57">
         <v>1.5</v>
       </c>
-      <c r="E60" s="74">
-        <v>2</v>
-      </c>
-      <c r="F60" s="71">
+      <c r="E60" s="71">
+        <v>2</v>
+      </c>
+      <c r="F60" s="68">
         <v>15</v>
       </c>
-      <c r="G60" s="77">
-        <v>10</v>
-      </c>
-      <c r="H60" s="78">
+      <c r="G60" s="74">
+        <v>10</v>
+      </c>
+      <c r="H60" s="75">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="57">
+      <c r="A61" s="54">
         <v>54</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="60">
-        <v>2</v>
-      </c>
-      <c r="E61" s="74">
-        <v>2</v>
-      </c>
-      <c r="F61" s="71">
+      <c r="D61" s="57">
+        <v>2</v>
+      </c>
+      <c r="E61" s="71">
+        <v>2</v>
+      </c>
+      <c r="F61" s="68">
         <v>15</v>
       </c>
-      <c r="G61" s="77">
+      <c r="G61" s="74">
         <v>8</v>
       </c>
-      <c r="H61" s="78">
+      <c r="H61" s="75">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="57">
+      <c r="A62" s="54">
         <v>55</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="60">
-        <v>2</v>
-      </c>
-      <c r="E62" s="74">
-        <v>2</v>
-      </c>
-      <c r="F62" s="71">
+      <c r="D62" s="57">
+        <v>2</v>
+      </c>
+      <c r="E62" s="71">
+        <v>2</v>
+      </c>
+      <c r="F62" s="68">
         <v>14</v>
       </c>
-      <c r="G62" s="77">
-        <v>10</v>
-      </c>
-      <c r="H62" s="78">
+      <c r="G62" s="74">
+        <v>10</v>
+      </c>
+      <c r="H62" s="75">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="57">
+      <c r="A63" s="54">
         <v>56</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="60">
+      <c r="D63" s="57">
         <v>1.5</v>
       </c>
-      <c r="E63" s="74">
-        <v>2</v>
-      </c>
-      <c r="F63" s="71">
+      <c r="E63" s="71">
+        <v>2</v>
+      </c>
+      <c r="F63" s="68">
         <v>12</v>
       </c>
-      <c r="G63" s="77">
+      <c r="G63" s="74">
         <v>9</v>
       </c>
-      <c r="H63" s="78">
+      <c r="H63" s="75">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="57">
+      <c r="A64" s="54">
         <v>57</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="60">
+      <c r="D64" s="57">
         <v>1.5</v>
       </c>
-      <c r="E64" s="74">
-        <v>2</v>
-      </c>
-      <c r="F64" s="71">
+      <c r="E64" s="71">
+        <v>2</v>
+      </c>
+      <c r="F64" s="68">
         <v>3</v>
       </c>
-      <c r="G64" s="77">
-        <v>2</v>
-      </c>
-      <c r="H64" s="78">
+      <c r="G64" s="74">
+        <v>2</v>
+      </c>
+      <c r="H64" s="75">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="57">
+      <c r="A65" s="54">
         <v>58</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="60">
+      <c r="D65" s="57">
         <v>1.5</v>
       </c>
-      <c r="E65" s="74">
-        <v>2</v>
-      </c>
-      <c r="F65" s="71">
+      <c r="E65" s="71">
+        <v>2</v>
+      </c>
+      <c r="F65" s="68">
         <v>14</v>
       </c>
-      <c r="G65" s="77">
+      <c r="G65" s="74">
         <v>8</v>
       </c>
-      <c r="H65" s="78">
+      <c r="H65" s="75">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="57">
+      <c r="A66" s="54">
         <v>59</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="60">
+      <c r="D66" s="57">
         <v>1.5</v>
       </c>
-      <c r="E66" s="74">
-        <v>2</v>
-      </c>
-      <c r="F66" s="71">
+      <c r="E66" s="71">
+        <v>2</v>
+      </c>
+      <c r="F66" s="68">
         <v>14</v>
       </c>
-      <c r="G66" s="77">
-        <v>10</v>
-      </c>
-      <c r="H66" s="78">
+      <c r="G66" s="74">
+        <v>10</v>
+      </c>
+      <c r="H66" s="75">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="57">
+      <c r="A67" s="54">
         <v>60</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="60">
-        <v>2</v>
-      </c>
-      <c r="E67" s="74">
-        <v>2</v>
-      </c>
-      <c r="F67" s="71">
+      <c r="D67" s="57">
+        <v>2</v>
+      </c>
+      <c r="E67" s="71">
+        <v>2</v>
+      </c>
+      <c r="F67" s="68">
         <v>13</v>
       </c>
-      <c r="G67" s="77">
-        <v>10</v>
-      </c>
-      <c r="H67" s="78">
+      <c r="G67" s="74">
+        <v>10</v>
+      </c>
+      <c r="H67" s="75">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="57">
+      <c r="A68" s="54">
         <v>61</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="60">
+      <c r="D68" s="57">
         <v>1.5</v>
       </c>
-      <c r="E68" s="74">
-        <v>2</v>
-      </c>
-      <c r="F68" s="71">
+      <c r="E68" s="71">
+        <v>2</v>
+      </c>
+      <c r="F68" s="68">
         <v>9</v>
       </c>
-      <c r="G68" s="77">
+      <c r="G68" s="74">
         <v>7</v>
       </c>
-      <c r="H68" s="78">
+      <c r="H68" s="75">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="57">
+      <c r="A69" s="54">
         <v>62</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="60">
-        <v>2</v>
-      </c>
-      <c r="E69" s="74">
-        <v>2</v>
-      </c>
-      <c r="F69" s="71">
+      <c r="D69" s="57">
+        <v>2</v>
+      </c>
+      <c r="E69" s="71">
+        <v>2</v>
+      </c>
+      <c r="F69" s="68">
         <v>14</v>
       </c>
-      <c r="G69" s="77">
-        <v>10</v>
-      </c>
-      <c r="H69" s="78">
+      <c r="G69" s="74">
+        <v>10</v>
+      </c>
+      <c r="H69" s="75">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="57">
+      <c r="A70" s="54">
         <v>63</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="60">
-        <v>2</v>
-      </c>
-      <c r="E70" s="74">
-        <v>2</v>
-      </c>
-      <c r="F70" s="71">
+      <c r="D70" s="57">
+        <v>2</v>
+      </c>
+      <c r="E70" s="71">
+        <v>2</v>
+      </c>
+      <c r="F70" s="68">
         <v>15</v>
       </c>
-      <c r="G70" s="77">
-        <v>10</v>
-      </c>
-      <c r="H70" s="78">
+      <c r="G70" s="74">
+        <v>10</v>
+      </c>
+      <c r="H70" s="75">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="57">
+      <c r="A71" s="54">
         <v>64</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="60" t="s">
+      <c r="D71" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="74">
-        <v>2</v>
-      </c>
-      <c r="F71" s="71">
+      <c r="E71" s="71">
+        <v>2</v>
+      </c>
+      <c r="F71" s="68">
         <v>13</v>
       </c>
-      <c r="G71" s="77">
+      <c r="G71" s="74">
         <v>8</v>
       </c>
-      <c r="H71" s="78">
+      <c r="H71" s="75">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="57">
+      <c r="A72" s="54">
         <v>65</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="60">
+      <c r="D72" s="57">
         <v>0.5</v>
       </c>
-      <c r="E72" s="74">
-        <v>2</v>
-      </c>
-      <c r="F72" s="71">
+      <c r="E72" s="71">
+        <v>2</v>
+      </c>
+      <c r="F72" s="68">
         <v>13</v>
       </c>
-      <c r="G72" s="77">
+      <c r="G72" s="74">
         <v>9</v>
       </c>
-      <c r="H72" s="78">
+      <c r="H72" s="75">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="57">
+      <c r="A73" s="54">
         <v>66</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="60">
-        <v>2</v>
-      </c>
-      <c r="E73" s="74">
-        <v>2</v>
-      </c>
-      <c r="F73" s="71">
-        <v>5</v>
-      </c>
-      <c r="G73" s="77">
+      <c r="D73" s="57">
+        <v>2</v>
+      </c>
+      <c r="E73" s="71">
+        <v>2</v>
+      </c>
+      <c r="F73" s="68">
+        <v>5</v>
+      </c>
+      <c r="G73" s="74">
         <v>7</v>
       </c>
-      <c r="H73" s="78">
+      <c r="H73" s="75">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="57">
+      <c r="A74" s="54">
         <v>67</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="60">
-        <v>2</v>
-      </c>
-      <c r="E74" s="74">
-        <v>2</v>
-      </c>
-      <c r="F74" s="71">
+      <c r="D74" s="57">
+        <v>2</v>
+      </c>
+      <c r="E74" s="71">
+        <v>2</v>
+      </c>
+      <c r="F74" s="68">
         <v>6</v>
       </c>
-      <c r="G74" s="77">
+      <c r="G74" s="74">
         <v>7</v>
       </c>
-      <c r="H74" s="78">
+      <c r="H74" s="75">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="57">
+      <c r="A75" s="54">
         <v>68</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="60">
-        <v>2</v>
-      </c>
-      <c r="E75" s="74">
-        <v>2</v>
-      </c>
-      <c r="F75" s="71">
+      <c r="D75" s="57">
+        <v>2</v>
+      </c>
+      <c r="E75" s="71">
+        <v>2</v>
+      </c>
+      <c r="F75" s="68">
         <v>15</v>
       </c>
-      <c r="G75" s="77">
-        <v>10</v>
-      </c>
-      <c r="H75" s="78">
+      <c r="G75" s="74">
+        <v>10</v>
+      </c>
+      <c r="H75" s="75">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="57">
+      <c r="A76" s="54">
         <v>69</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="60">
+      <c r="D76" s="57">
         <v>1</v>
       </c>
-      <c r="E76" s="74">
-        <v>2</v>
-      </c>
-      <c r="F76" s="71">
+      <c r="E76" s="71">
+        <v>2</v>
+      </c>
+      <c r="F76" s="68">
         <v>15</v>
       </c>
-      <c r="G76" s="77">
-        <v>10</v>
-      </c>
-      <c r="H76" s="78">
+      <c r="G76" s="74">
+        <v>10</v>
+      </c>
+      <c r="H76" s="75">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="57">
+      <c r="A77" s="54">
         <v>70</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="60" t="s">
+      <c r="D77" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="74">
-        <v>2</v>
-      </c>
-      <c r="F77" s="71">
+      <c r="E77" s="71">
+        <v>2</v>
+      </c>
+      <c r="F77" s="68">
         <v>15</v>
       </c>
-      <c r="G77" s="77">
+      <c r="G77" s="74">
         <v>7</v>
       </c>
-      <c r="H77" s="78">
+      <c r="H77" s="75">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="57">
+      <c r="A78" s="54">
         <v>71</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="60">
+      <c r="D78" s="57">
         <v>1.5</v>
       </c>
-      <c r="E78" s="74">
-        <v>2</v>
-      </c>
-      <c r="F78" s="71">
+      <c r="E78" s="71">
+        <v>2</v>
+      </c>
+      <c r="F78" s="68">
         <v>12</v>
       </c>
-      <c r="G78" s="77">
+      <c r="G78" s="74">
         <v>7</v>
       </c>
-      <c r="H78" s="78">
+      <c r="H78" s="75">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="57">
+      <c r="A79" s="54">
         <v>72</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="60">
+      <c r="D79" s="57">
         <v>1.5</v>
       </c>
-      <c r="E79" s="74">
-        <v>2</v>
-      </c>
-      <c r="F79" s="71">
+      <c r="E79" s="71">
+        <v>2</v>
+      </c>
+      <c r="F79" s="68">
         <v>13</v>
       </c>
-      <c r="G79" s="77">
+      <c r="G79" s="74">
         <v>8</v>
       </c>
-      <c r="H79" s="78">
+      <c r="H79" s="75">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="57">
+      <c r="A80" s="54">
         <v>73</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="60">
+      <c r="D80" s="57">
         <v>0.5</v>
       </c>
-      <c r="E80" s="74">
+      <c r="E80" s="71">
         <v>1.5</v>
       </c>
-      <c r="F80" s="71">
-        <v>10</v>
-      </c>
-      <c r="G80" s="77">
+      <c r="F80" s="68">
+        <v>10</v>
+      </c>
+      <c r="G80" s="74">
         <v>9</v>
       </c>
-      <c r="H80" s="78">
+      <c r="H80" s="75">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="57">
+      <c r="A81" s="54">
         <v>74</v>
       </c>
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="60">
+      <c r="D81" s="57">
         <v>1.5</v>
       </c>
-      <c r="E81" s="74">
-        <v>2</v>
-      </c>
-      <c r="F81" s="71">
+      <c r="E81" s="71">
+        <v>2</v>
+      </c>
+      <c r="F81" s="68">
         <v>7</v>
       </c>
-      <c r="G81" s="77">
+      <c r="G81" s="74">
         <v>6</v>
       </c>
-      <c r="H81" s="78">
+      <c r="H81" s="75">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="57">
+      <c r="A82" s="54">
         <v>75</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D82" s="60">
+      <c r="D82" s="57">
         <v>1.5</v>
       </c>
-      <c r="E82" s="74">
-        <v>2</v>
-      </c>
-      <c r="F82" s="71">
-        <v>10</v>
-      </c>
-      <c r="G82" s="77">
+      <c r="E82" s="71">
+        <v>2</v>
+      </c>
+      <c r="F82" s="68">
+        <v>10</v>
+      </c>
+      <c r="G82" s="74">
         <v>8</v>
       </c>
-      <c r="H82" s="78">
+      <c r="H82" s="75">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="57">
+      <c r="A83" s="54">
         <v>76</v>
       </c>
-      <c r="B83" s="57" t="s">
+      <c r="B83" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="60">
+      <c r="D83" s="57">
         <v>1.5</v>
       </c>
-      <c r="E83" s="74">
-        <v>2</v>
-      </c>
-      <c r="F83" s="71">
+      <c r="E83" s="71">
+        <v>2</v>
+      </c>
+      <c r="F83" s="68">
         <v>7</v>
       </c>
-      <c r="G83" s="77">
+      <c r="G83" s="74">
         <v>8</v>
       </c>
-      <c r="H83" s="78">
+      <c r="H83" s="75">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="6:6">
-      <c r="F86" s="79"/>
+      <c r="F86" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4307,86 +4272,86 @@
   <cols>
     <col min="2" max="2" width="27.1416666666667" customWidth="true"/>
     <col min="3" max="3" width="23.7083333333333" customWidth="true"/>
-    <col min="4" max="4" width="13.425" style="37" customWidth="true"/>
+    <col min="4" max="4" width="13.425" style="36" customWidth="true"/>
     <col min="5" max="5" width="20.1416666666667" customWidth="true"/>
     <col min="6" max="6" width="17.425" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" ht="21" spans="1:5">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" ht="21" spans="1:5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="39">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="38">
         <v>44070</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="42">
+      <c r="E4" s="38"/>
+      <c r="F4" s="41">
         <v>44153</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="40" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="40">
-        <v>10</v>
-      </c>
-      <c r="E6" s="44">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="39">
+        <v>10</v>
+      </c>
+      <c r="E6" s="43">
         <v>10</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4400,10 +4365,10 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>9</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F8">
@@ -4421,10 +4386,10 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>8</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>176</v>
       </c>
       <c r="F9">
@@ -4442,10 +4407,10 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>9</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>178</v>
       </c>
       <c r="F10">
@@ -4463,10 +4428,10 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>8</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F11">
@@ -4484,10 +4449,10 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="37">
-        <v>5</v>
-      </c>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="36">
+        <v>5</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F12">
@@ -4505,10 +4470,10 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>6</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F13">
@@ -4526,10 +4491,10 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>3</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F14">
@@ -4547,10 +4512,10 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37">
-        <v>5</v>
-      </c>
-      <c r="E15" s="47" t="s">
+      <c r="D15" s="36">
+        <v>5</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F15">
@@ -4568,10 +4533,10 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>6</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F16">
@@ -4589,10 +4554,10 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="37">
-        <v>5</v>
-      </c>
-      <c r="E17" s="47" t="s">
+      <c r="D17" s="36">
+        <v>5</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>188</v>
       </c>
       <c r="F17">
@@ -4609,10 +4574,10 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>6</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="46" t="s">
         <v>190</v>
       </c>
       <c r="F18">
@@ -4630,10 +4595,10 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>7</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F19">
@@ -4651,10 +4616,10 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>7</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F20">
@@ -4672,10 +4637,10 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>7</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F21">
@@ -4693,10 +4658,10 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>6</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F22">
@@ -4714,10 +4679,10 @@
       <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>6</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="46" t="s">
         <v>196</v>
       </c>
       <c r="F23">
@@ -4735,10 +4700,10 @@
       <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="37">
-        <v>5</v>
-      </c>
-      <c r="E24" s="47" t="s">
+      <c r="D24" s="36">
+        <v>5</v>
+      </c>
+      <c r="E24" s="46" t="s">
         <v>198</v>
       </c>
       <c r="F24">
@@ -4756,10 +4721,10 @@
       <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="37">
-        <v>5</v>
-      </c>
-      <c r="E25" s="47" t="s">
+      <c r="D25" s="36">
+        <v>5</v>
+      </c>
+      <c r="E25" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F25">
@@ -4777,10 +4742,10 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>9</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="46" t="s">
         <v>190</v>
       </c>
       <c r="F26">
@@ -4798,10 +4763,10 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>6</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F27">
@@ -4819,10 +4784,10 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>6</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F28">
@@ -4840,10 +4805,10 @@
       <c r="C29" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>8</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F29">
@@ -4861,10 +4826,10 @@
       <c r="C30" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>7</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F30">
@@ -4882,10 +4847,10 @@
       <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>6</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F31">
@@ -4903,10 +4868,10 @@
       <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>6</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F32">
@@ -4924,10 +4889,10 @@
       <c r="C33" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>6</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F33">
@@ -4945,10 +4910,10 @@
       <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>7</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F34">
@@ -4966,10 +4931,10 @@
       <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>8</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="46" t="s">
         <v>196</v>
       </c>
       <c r="F35">
@@ -4987,10 +4952,10 @@
       <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="36">
         <v>7</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="46" t="s">
         <v>176</v>
       </c>
       <c r="F36">
@@ -5007,10 +4972,10 @@
       <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>8</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="46" t="s">
         <v>176</v>
       </c>
       <c r="F37">
@@ -5028,10 +4993,10 @@
       <c r="C38" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="36">
         <v>8</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="46" t="s">
         <v>190</v>
       </c>
       <c r="F38">
@@ -5049,10 +5014,10 @@
       <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="36">
         <v>6</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="46" t="s">
         <v>198</v>
       </c>
       <c r="F39">
@@ -5070,10 +5035,10 @@
       <c r="C40" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="36">
         <v>7</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="46" t="s">
         <v>178</v>
       </c>
       <c r="F40">
@@ -5091,10 +5056,10 @@
       <c r="C41" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="36">
         <v>6</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F41">
@@ -5112,10 +5077,10 @@
       <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="36">
         <v>8</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F42">
@@ -5133,10 +5098,10 @@
       <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="37">
-        <v>5</v>
-      </c>
-      <c r="E43" s="47" t="s">
+      <c r="D43" s="36">
+        <v>5</v>
+      </c>
+      <c r="E43" s="46" t="s">
         <v>178</v>
       </c>
       <c r="F43">
@@ -5154,10 +5119,10 @@
       <c r="C44" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="36">
         <v>8</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="46" t="s">
         <v>198</v>
       </c>
       <c r="F44">
@@ -5175,10 +5140,10 @@
       <c r="C45" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="36">
         <v>3</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="46" t="s">
         <v>220</v>
       </c>
       <c r="F45">
@@ -5196,10 +5161,10 @@
       <c r="C46" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="36">
         <v>8</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F46">
@@ -5217,10 +5182,10 @@
       <c r="C47" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="37">
-        <v>5</v>
-      </c>
-      <c r="E47" s="48" t="s">
+      <c r="D47" s="36">
+        <v>5</v>
+      </c>
+      <c r="E47" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F47">
@@ -5238,10 +5203,10 @@
       <c r="C48" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="37">
-        <v>4</v>
-      </c>
-      <c r="E48" s="48" t="s">
+      <c r="D48" s="36">
+        <v>4</v>
+      </c>
+      <c r="E48" s="46" t="s">
         <v>190</v>
       </c>
       <c r="F48">
@@ -5259,10 +5224,10 @@
       <c r="C49" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="37">
-        <v>5</v>
-      </c>
-      <c r="E49" s="48" t="s">
+      <c r="D49" s="36">
+        <v>5</v>
+      </c>
+      <c r="E49" s="46" t="s">
         <v>188</v>
       </c>
       <c r="F49">
@@ -5280,10 +5245,10 @@
       <c r="C50" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="37">
-        <v>4</v>
-      </c>
-      <c r="E50" s="48">
+      <c r="D50" s="36">
+        <v>4</v>
+      </c>
+      <c r="E50" s="46">
         <v>7</v>
       </c>
       <c r="F50">
@@ -5300,10 +5265,10 @@
       <c r="C51" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="36">
         <v>7</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F51">
@@ -5321,10 +5286,10 @@
       <c r="C52" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="36">
         <v>7</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F52">
@@ -5342,10 +5307,10 @@
       <c r="C53" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="36">
         <v>8</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="46" t="s">
         <v>229</v>
       </c>
       <c r="F53">
@@ -5363,10 +5328,10 @@
       <c r="C54" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="37">
-        <v>10</v>
-      </c>
-      <c r="E54" s="48" t="s">
+      <c r="D54" s="36">
+        <v>10</v>
+      </c>
+      <c r="E54" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F54">
@@ -5384,10 +5349,10 @@
       <c r="C55" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="37">
-        <v>10</v>
-      </c>
-      <c r="E55" s="48" t="s">
+      <c r="D55" s="36">
+        <v>10</v>
+      </c>
+      <c r="E55" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F55">
@@ -5405,10 +5370,10 @@
       <c r="C56" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="37">
-        <v>4</v>
-      </c>
-      <c r="E56" s="48" t="s">
+      <c r="D56" s="36">
+        <v>4</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>196</v>
       </c>
       <c r="F56">
@@ -5426,10 +5391,10 @@
       <c r="C57" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="36">
         <v>6</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F57">
@@ -5447,10 +5412,10 @@
       <c r="C58" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="36">
         <v>7</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F58">
@@ -5468,10 +5433,10 @@
       <c r="C59" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D59" s="36">
         <v>8</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F59">
@@ -5489,10 +5454,10 @@
       <c r="C60" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D60" s="36">
         <v>7</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F60">
@@ -5510,10 +5475,10 @@
       <c r="C61" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="36">
         <v>7</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F61">
@@ -5531,10 +5496,10 @@
       <c r="C62" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="37">
-        <v>5</v>
-      </c>
-      <c r="E62" s="48" t="s">
+      <c r="D62" s="36">
+        <v>5</v>
+      </c>
+      <c r="E62" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F62">
@@ -5552,10 +5517,10 @@
       <c r="C63" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="36">
         <v>6</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="46" t="s">
         <v>190</v>
       </c>
       <c r="F63">
@@ -5573,10 +5538,10 @@
       <c r="C64" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="36">
         <v>6</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F64">
@@ -5594,10 +5559,10 @@
       <c r="C65" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D65" s="36">
         <v>8</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="46" t="s">
         <v>178</v>
       </c>
       <c r="F65">
@@ -5615,10 +5580,10 @@
       <c r="C66" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="37">
+      <c r="D66" s="36">
         <v>7</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="46" t="s">
         <v>198</v>
       </c>
       <c r="F66">
@@ -5636,10 +5601,10 @@
       <c r="C67" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="37">
+      <c r="D67" s="36">
         <v>8</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F67">
@@ -5657,10 +5622,10 @@
       <c r="C68" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="37">
+      <c r="D68" s="36">
         <v>8</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F68">
@@ -5678,10 +5643,10 @@
       <c r="C69" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="37">
+      <c r="D69" s="36">
         <v>9</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F69">
@@ -5699,10 +5664,10 @@
       <c r="C70" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="37">
-        <v>5</v>
-      </c>
-      <c r="E70" s="48" t="s">
+      <c r="D70" s="36">
+        <v>5</v>
+      </c>
+      <c r="E70" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F70">
@@ -5720,10 +5685,10 @@
       <c r="C71" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="36">
         <v>7</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F71">
@@ -5741,10 +5706,10 @@
       <c r="C72" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="36">
         <v>7</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="46" t="s">
         <v>190</v>
       </c>
       <c r="F72">
@@ -5762,10 +5727,10 @@
       <c r="C73" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="37">
+      <c r="D73" s="36">
         <v>8</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F73">
@@ -5783,10 +5748,10 @@
       <c r="C74" t="s">
         <v>133</v>
       </c>
-      <c r="D74" s="37">
+      <c r="D74" s="36">
         <v>8</v>
       </c>
-      <c r="E74" s="48" t="s">
+      <c r="E74" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F74">
@@ -5804,10 +5769,10 @@
       <c r="C75" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="37">
+      <c r="D75" s="36">
         <v>7</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F75">
@@ -5825,10 +5790,10 @@
       <c r="C76" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="37">
+      <c r="D76" s="36">
         <v>9</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="46" t="s">
         <v>190</v>
       </c>
       <c r="F76">
@@ -5846,10 +5811,10 @@
       <c r="C77" t="s">
         <v>155</v>
       </c>
-      <c r="D77" s="37">
+      <c r="D77" s="36">
         <v>7</v>
       </c>
-      <c r="E77" s="48" t="s">
+      <c r="E77" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F77">
@@ -5867,10 +5832,10 @@
       <c r="C78" t="s">
         <v>157</v>
       </c>
-      <c r="D78" s="37">
+      <c r="D78" s="36">
         <v>7</v>
       </c>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="46" t="s">
         <v>190</v>
       </c>
       <c r="F78">
@@ -5888,10 +5853,10 @@
       <c r="C79" t="s">
         <v>159</v>
       </c>
-      <c r="D79" s="37">
-        <v>5</v>
-      </c>
-      <c r="E79" s="48" t="s">
+      <c r="D79" s="36">
+        <v>5</v>
+      </c>
+      <c r="E79" s="46" t="s">
         <v>174</v>
       </c>
       <c r="F79">
@@ -5909,10 +5874,10 @@
       <c r="C80" t="s">
         <v>161</v>
       </c>
-      <c r="D80" s="37">
-        <v>5</v>
-      </c>
-      <c r="E80" s="48" t="s">
+      <c r="D80" s="36">
+        <v>5</v>
+      </c>
+      <c r="E80" s="46" t="s">
         <v>180</v>
       </c>
       <c r="F80">
@@ -5930,10 +5895,10 @@
       <c r="C81" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="37">
+      <c r="D81" s="36">
         <v>6</v>
       </c>
-      <c r="E81" s="48" t="s">
+      <c r="E81" s="46" t="s">
         <v>188</v>
       </c>
       <c r="F81">
@@ -5950,10 +5915,10 @@
       <c r="C82" t="s">
         <v>165</v>
       </c>
-      <c r="D82" s="37">
+      <c r="D82" s="36">
         <v>6</v>
       </c>
-      <c r="E82" s="48" t="s">
+      <c r="E82" s="46" t="s">
         <v>182</v>
       </c>
       <c r="F82">
@@ -5962,10 +5927,10 @@
       </c>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="21"/>
+      <c r="E83" s="20"/>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="49"/>
+      <c r="E84" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5999,2663 +5964,2663 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" spans="1:11">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" ht="21" spans="1:11">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" ht="21" spans="1:11">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" ht="21" spans="1:11">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" ht="18" spans="1:11">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>1</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="26">
-        <v>5</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="25">
+        <v>5</v>
+      </c>
+      <c r="E7" s="25">
         <v>4.5</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>4.5</v>
       </c>
-      <c r="G7" s="26">
-        <v>5</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="G7" s="25">
+        <v>5</v>
+      </c>
+      <c r="H7" s="25">
         <v>4.5</v>
       </c>
-      <c r="I7" s="26">
-        <v>4</v>
-      </c>
-      <c r="J7" s="26">
+      <c r="I7" s="25">
+        <v>4</v>
+      </c>
+      <c r="J7" s="25">
         <v>22.5</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24">
-        <v>2</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="26">
-        <v>5</v>
-      </c>
-      <c r="E8" s="26">
-        <v>4</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="D8" s="25">
+        <v>5</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4</v>
+      </c>
+      <c r="F8" s="25">
         <v>4.5</v>
       </c>
-      <c r="G8" s="26">
-        <v>4</v>
-      </c>
-      <c r="H8" s="26">
-        <v>5</v>
-      </c>
-      <c r="I8" s="26">
+      <c r="G8" s="25">
+        <v>4</v>
+      </c>
+      <c r="H8" s="25">
+        <v>5</v>
+      </c>
+      <c r="I8" s="25">
         <v>4.5</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>22</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>3</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="26">
-        <v>4</v>
-      </c>
-      <c r="E9" s="30">
-        <v>5</v>
-      </c>
-      <c r="F9" s="26">
-        <v>5</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="D9" s="25">
+        <v>4</v>
+      </c>
+      <c r="E9" s="29">
+        <v>5</v>
+      </c>
+      <c r="F9" s="25">
+        <v>5</v>
+      </c>
+      <c r="G9" s="25">
         <v>3.5</v>
       </c>
-      <c r="H9" s="26">
-        <v>4</v>
-      </c>
-      <c r="I9" s="26">
-        <v>4</v>
-      </c>
-      <c r="J9" s="26">
+      <c r="H9" s="25">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25">
+        <v>4</v>
+      </c>
+      <c r="J9" s="25">
         <v>21.5</v>
       </c>
-      <c r="K9" s="31"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24">
-        <v>4</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="23">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>6</v>
       </c>
-      <c r="E10" s="26">
-        <v>5</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="E10" s="25">
+        <v>5</v>
+      </c>
+      <c r="F10" s="25">
         <v>4.5</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>4.5</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>3.5</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>4.5</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>22</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24">
-        <v>5</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="23">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>3</v>
       </c>
-      <c r="E11" s="26">
-        <v>4</v>
-      </c>
-      <c r="F11" s="26">
-        <v>4</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="E11" s="25">
+        <v>4</v>
+      </c>
+      <c r="F11" s="25">
+        <v>4</v>
+      </c>
+      <c r="G11" s="25">
         <v>1.5</v>
       </c>
-      <c r="H11" s="26">
-        <v>2</v>
-      </c>
-      <c r="I11" s="26">
+      <c r="H11" s="25">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25">
         <v>0.5</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>12</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>6</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26">
-        <v>4</v>
-      </c>
-      <c r="E12" s="26">
-        <v>4</v>
-      </c>
-      <c r="F12" s="26">
-        <v>4</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="D12" s="25">
+        <v>4</v>
+      </c>
+      <c r="E12" s="25">
+        <v>4</v>
+      </c>
+      <c r="F12" s="25">
+        <v>4</v>
+      </c>
+      <c r="G12" s="25">
         <v>1.5</v>
       </c>
-      <c r="H12" s="26">
-        <v>4</v>
-      </c>
-      <c r="I12" s="26">
+      <c r="H12" s="25">
+        <v>4</v>
+      </c>
+      <c r="I12" s="25">
         <v>3</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>16.5</v>
       </c>
-      <c r="K12" s="31"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>7</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="26">
-        <v>4</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="D13" s="25">
+        <v>4</v>
+      </c>
+      <c r="E13" s="25">
         <v>2.5</v>
       </c>
-      <c r="F13" s="26">
-        <v>2</v>
-      </c>
-      <c r="G13" s="26" t="s">
+      <c r="F13" s="25">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="26">
-        <v>4</v>
-      </c>
-      <c r="I13" s="26">
+      <c r="H13" s="25">
+        <v>4</v>
+      </c>
+      <c r="I13" s="25">
         <v>1</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>9.5</v>
       </c>
-      <c r="K13" s="31"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>8</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>6</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>1</v>
       </c>
-      <c r="F14" s="26">
-        <v>2</v>
-      </c>
-      <c r="G14" s="26">
-        <v>4</v>
-      </c>
-      <c r="H14" s="26">
-        <v>4</v>
-      </c>
-      <c r="I14" s="26">
-        <v>4</v>
-      </c>
-      <c r="J14" s="26">
+      <c r="F14" s="25">
+        <v>2</v>
+      </c>
+      <c r="G14" s="25">
+        <v>4</v>
+      </c>
+      <c r="H14" s="25">
+        <v>4</v>
+      </c>
+      <c r="I14" s="25">
+        <v>4</v>
+      </c>
+      <c r="J14" s="25">
         <v>15</v>
       </c>
-      <c r="K14" s="31"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>9</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>1</v>
       </c>
-      <c r="E15" s="26">
-        <v>5</v>
-      </c>
-      <c r="F15" s="26">
+      <c r="E15" s="25">
+        <v>5</v>
+      </c>
+      <c r="F15" s="25">
         <v>2.5</v>
       </c>
-      <c r="G15" s="26">
-        <v>4</v>
-      </c>
-      <c r="H15" s="26">
+      <c r="G15" s="25">
+        <v>4</v>
+      </c>
+      <c r="H15" s="25">
         <v>4.5</v>
       </c>
-      <c r="I15" s="26">
-        <v>5</v>
-      </c>
-      <c r="J15" s="26">
+      <c r="I15" s="25">
+        <v>5</v>
+      </c>
+      <c r="J15" s="25">
         <v>21</v>
       </c>
-      <c r="K15" s="31"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24">
-        <v>10</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="23">
+        <v>10</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="26">
-        <v>5</v>
-      </c>
-      <c r="E16" s="26">
-        <v>5</v>
-      </c>
-      <c r="F16" s="26">
+      <c r="D16" s="25">
+        <v>5</v>
+      </c>
+      <c r="E16" s="25">
+        <v>5</v>
+      </c>
+      <c r="F16" s="25">
         <v>3.5</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>4.5</v>
       </c>
-      <c r="H16" s="26">
-        <v>5</v>
-      </c>
-      <c r="I16" s="26">
-        <v>4</v>
-      </c>
-      <c r="J16" s="26">
+      <c r="H16" s="25">
+        <v>5</v>
+      </c>
+      <c r="I16" s="25">
+        <v>4</v>
+      </c>
+      <c r="J16" s="25">
         <v>22</v>
       </c>
-      <c r="K16" s="31"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>11</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="26">
-        <v>2</v>
-      </c>
-      <c r="E17" s="26">
-        <v>4</v>
-      </c>
-      <c r="F17" s="26">
-        <v>4</v>
-      </c>
-      <c r="G17" s="26">
+      <c r="D17" s="25">
+        <v>2</v>
+      </c>
+      <c r="E17" s="25">
+        <v>4</v>
+      </c>
+      <c r="F17" s="25">
+        <v>4</v>
+      </c>
+      <c r="G17" s="25">
         <v>3.5</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>1</v>
       </c>
-      <c r="I17" s="26">
-        <v>4</v>
-      </c>
-      <c r="J17" s="26">
+      <c r="I17" s="25">
+        <v>4</v>
+      </c>
+      <c r="J17" s="25">
         <v>16.5</v>
       </c>
-      <c r="K17" s="31"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>12</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>3</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>3</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>2.5</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>2.5</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>1</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="25">
         <v>3</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="25">
         <v>12</v>
       </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>13</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="26">
-        <v>5</v>
-      </c>
-      <c r="E19" s="26">
-        <v>5</v>
-      </c>
-      <c r="F19" s="26">
-        <v>4</v>
-      </c>
-      <c r="G19" s="26" t="s">
+      <c r="D19" s="25">
+        <v>5</v>
+      </c>
+      <c r="E19" s="25">
+        <v>5</v>
+      </c>
+      <c r="F19" s="25">
+        <v>4</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>4.5</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="25">
         <v>4.5</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <v>18</v>
       </c>
-      <c r="K19" s="31"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>14</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="26">
-        <v>2</v>
-      </c>
-      <c r="E20" s="26">
-        <v>2</v>
-      </c>
-      <c r="F20" s="26">
+      <c r="D20" s="25">
+        <v>2</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2</v>
+      </c>
+      <c r="F20" s="25">
         <v>3.5</v>
       </c>
-      <c r="G20" s="26">
-        <v>4</v>
-      </c>
-      <c r="H20" s="26">
-        <v>5</v>
-      </c>
-      <c r="I20" s="26">
-        <v>4</v>
-      </c>
-      <c r="J20" s="26">
+      <c r="G20" s="25">
+        <v>4</v>
+      </c>
+      <c r="H20" s="25">
+        <v>5</v>
+      </c>
+      <c r="I20" s="25">
+        <v>4</v>
+      </c>
+      <c r="J20" s="25">
         <v>18.5</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>15</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="26">
-        <v>2</v>
-      </c>
-      <c r="E21" s="26">
-        <v>2</v>
-      </c>
-      <c r="F21" s="26">
+      <c r="D21" s="25">
+        <v>2</v>
+      </c>
+      <c r="E21" s="25">
+        <v>2</v>
+      </c>
+      <c r="F21" s="25">
         <v>4.5</v>
       </c>
-      <c r="G21" s="26">
-        <v>2</v>
-      </c>
-      <c r="H21" s="26">
-        <v>5</v>
-      </c>
-      <c r="I21" s="26">
+      <c r="G21" s="25">
+        <v>2</v>
+      </c>
+      <c r="H21" s="25">
+        <v>5</v>
+      </c>
+      <c r="I21" s="25">
         <v>3</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <v>16.5</v>
       </c>
-      <c r="K21" s="31"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>16</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>1</v>
       </c>
-      <c r="E22" s="26">
-        <v>5</v>
-      </c>
-      <c r="F22" s="26">
+      <c r="E22" s="25">
+        <v>5</v>
+      </c>
+      <c r="F22" s="25">
         <v>2.5</v>
       </c>
-      <c r="G22" s="26">
-        <v>2</v>
-      </c>
-      <c r="H22" s="26">
-        <v>2</v>
-      </c>
-      <c r="I22" s="26">
+      <c r="G22" s="25">
+        <v>2</v>
+      </c>
+      <c r="H22" s="25">
+        <v>2</v>
+      </c>
+      <c r="I22" s="25">
         <v>3.5</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <v>15</v>
       </c>
-      <c r="K22" s="31"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="24">
+      <c r="A23" s="23">
         <v>17</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>6</v>
       </c>
-      <c r="E23" s="26">
-        <v>4</v>
-      </c>
-      <c r="F23" s="26">
+      <c r="E23" s="25">
+        <v>4</v>
+      </c>
+      <c r="F23" s="25">
         <v>3.5</v>
       </c>
-      <c r="G23" s="26">
-        <v>5</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="G23" s="25">
+        <v>5</v>
+      </c>
+      <c r="H23" s="25">
         <v>4.5</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>3</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>20</v>
       </c>
-      <c r="K23" s="31"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="24">
+      <c r="A24" s="23">
         <v>18</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="26">
-        <v>5</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="D24" s="25">
+        <v>5</v>
+      </c>
+      <c r="E24" s="25">
         <v>3</v>
       </c>
-      <c r="F24" s="26">
-        <v>2</v>
-      </c>
-      <c r="G24" s="26">
-        <v>5</v>
-      </c>
-      <c r="H24" s="26" t="s">
+      <c r="F24" s="25">
+        <v>2</v>
+      </c>
+      <c r="G24" s="25">
+        <v>5</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="25">
         <v>3.5</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="25">
         <v>13.5</v>
       </c>
-      <c r="K24" s="31"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="24">
+      <c r="A25" s="23">
         <v>19</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>1</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="25">
         <v>4.5</v>
       </c>
-      <c r="F25" s="26">
-        <v>4</v>
-      </c>
-      <c r="G25" s="26">
+      <c r="F25" s="25">
+        <v>4</v>
+      </c>
+      <c r="G25" s="25">
         <v>4.5</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>3</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="25">
         <v>3.5</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="25">
         <v>19.5</v>
       </c>
-      <c r="K25" s="31"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="24">
+      <c r="A26" s="23">
         <v>20</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="26">
-        <v>5</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="D26" s="25">
+        <v>5</v>
+      </c>
+      <c r="E26" s="25">
         <v>3.5</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>2.5</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>3.5</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>3</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <v>12.5</v>
       </c>
-      <c r="K26" s="31"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="24">
+      <c r="A27" s="23">
         <v>21</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <v>6</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="25">
         <v>3</v>
       </c>
-      <c r="F27" s="26">
-        <v>4</v>
-      </c>
-      <c r="G27" s="26">
-        <v>4</v>
-      </c>
-      <c r="H27" s="26">
+      <c r="F27" s="25">
+        <v>4</v>
+      </c>
+      <c r="G27" s="25">
+        <v>4</v>
+      </c>
+      <c r="H27" s="25">
         <v>3</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>2.5</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <v>16.5</v>
       </c>
-      <c r="K27" s="31"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="24">
+      <c r="A28" s="23">
         <v>22</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="26">
-        <v>5</v>
-      </c>
-      <c r="E28" s="26">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26">
-        <v>4</v>
-      </c>
-      <c r="G28" s="26">
+      <c r="D28" s="25">
+        <v>5</v>
+      </c>
+      <c r="E28" s="25">
+        <v>5</v>
+      </c>
+      <c r="F28" s="25">
+        <v>4</v>
+      </c>
+      <c r="G28" s="25">
         <v>4.5</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="25">
         <v>4.5</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="25">
         <v>4.5</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <v>22.5</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>23</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>1</v>
       </c>
-      <c r="E29" s="26">
-        <v>5</v>
-      </c>
-      <c r="F29" s="26">
-        <v>4</v>
-      </c>
-      <c r="G29" s="26">
+      <c r="E29" s="25">
+        <v>5</v>
+      </c>
+      <c r="F29" s="25">
+        <v>4</v>
+      </c>
+      <c r="G29" s="25">
         <v>2.5</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>3.5</v>
       </c>
-      <c r="I29" s="26">
-        <v>4</v>
-      </c>
-      <c r="J29" s="26">
+      <c r="I29" s="25">
+        <v>4</v>
+      </c>
+      <c r="J29" s="25">
         <v>19</v>
       </c>
-      <c r="K29" s="31"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="24">
+      <c r="A30" s="23">
         <v>24</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="26">
-        <v>2</v>
-      </c>
-      <c r="E30" s="26">
-        <v>4</v>
-      </c>
-      <c r="F30" s="26">
-        <v>4</v>
-      </c>
-      <c r="G30" s="26">
+      <c r="D30" s="25">
+        <v>2</v>
+      </c>
+      <c r="E30" s="25">
+        <v>4</v>
+      </c>
+      <c r="F30" s="25">
+        <v>4</v>
+      </c>
+      <c r="G30" s="25">
         <v>3</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="25">
         <v>3</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="25">
         <v>2.5</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="25">
         <v>16.5</v>
       </c>
-      <c r="K30" s="31"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="24">
+      <c r="A31" s="23">
         <v>25</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>1</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>3</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="25">
         <v>3.5</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <v>1.5</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="25">
         <v>3</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="25">
         <v>3.5</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="25">
         <v>14.5</v>
       </c>
-      <c r="K31" s="31"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="26">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="25">
         <v>0</v>
       </c>
-      <c r="K32" s="32"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>26</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="26">
-        <v>2</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="D33" s="25">
+        <v>2</v>
+      </c>
+      <c r="E33" s="25">
         <v>3</v>
       </c>
-      <c r="F33" s="26">
-        <v>4</v>
-      </c>
-      <c r="G33" s="26">
+      <c r="F33" s="25">
+        <v>4</v>
+      </c>
+      <c r="G33" s="25">
         <v>4.5</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="25">
         <v>1</v>
       </c>
-      <c r="I33" s="26">
-        <v>4</v>
-      </c>
-      <c r="J33" s="26">
+      <c r="I33" s="25">
+        <v>4</v>
+      </c>
+      <c r="J33" s="25">
         <v>16.5</v>
       </c>
-      <c r="K33" s="31"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="24">
+      <c r="A34" s="23">
         <v>27</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="26">
-        <v>4</v>
-      </c>
-      <c r="E34" s="26">
-        <v>2</v>
-      </c>
-      <c r="F34" s="26">
+      <c r="D34" s="25">
+        <v>4</v>
+      </c>
+      <c r="E34" s="25">
+        <v>2</v>
+      </c>
+      <c r="F34" s="25">
         <v>3.5</v>
       </c>
-      <c r="G34" s="26">
-        <v>5</v>
-      </c>
-      <c r="H34" s="26">
-        <v>4</v>
-      </c>
-      <c r="I34" s="26">
-        <v>2</v>
-      </c>
-      <c r="J34" s="26">
+      <c r="G34" s="25">
+        <v>5</v>
+      </c>
+      <c r="H34" s="25">
+        <v>4</v>
+      </c>
+      <c r="I34" s="25">
+        <v>2</v>
+      </c>
+      <c r="J34" s="25">
         <v>16.5</v>
       </c>
-      <c r="K34" s="31"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="24">
+      <c r="A35" s="23">
         <v>28</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="26">
-        <v>2</v>
-      </c>
-      <c r="E35" s="26">
-        <v>5</v>
-      </c>
-      <c r="F35" s="26">
+      <c r="D35" s="25">
+        <v>2</v>
+      </c>
+      <c r="E35" s="25">
+        <v>5</v>
+      </c>
+      <c r="F35" s="25">
         <v>4.5</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="25">
         <v>2.5</v>
       </c>
-      <c r="H35" s="26">
-        <v>4</v>
-      </c>
-      <c r="I35" s="26">
-        <v>5</v>
-      </c>
-      <c r="J35" s="26">
+      <c r="H35" s="25">
+        <v>4</v>
+      </c>
+      <c r="I35" s="25">
+        <v>5</v>
+      </c>
+      <c r="J35" s="25">
         <v>21</v>
       </c>
-      <c r="K35" s="31"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="24">
+      <c r="A36" s="23">
         <v>29</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="26">
-        <v>5</v>
-      </c>
-      <c r="E36" s="26">
-        <v>4</v>
-      </c>
-      <c r="F36" s="26">
+      <c r="D36" s="25">
+        <v>5</v>
+      </c>
+      <c r="E36" s="25">
+        <v>4</v>
+      </c>
+      <c r="F36" s="25">
         <v>2.5</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <v>3</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="25">
         <v>3.5</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="25">
         <v>3</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="25">
         <v>16</v>
       </c>
-      <c r="K36" s="31"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="24">
+      <c r="A37" s="23">
         <v>30</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <v>1</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="25">
         <v>3</v>
       </c>
-      <c r="F37" s="26">
-        <v>4</v>
-      </c>
-      <c r="G37" s="26">
-        <v>2</v>
-      </c>
-      <c r="H37" s="26">
-        <v>2</v>
-      </c>
-      <c r="I37" s="26">
+      <c r="F37" s="25">
+        <v>4</v>
+      </c>
+      <c r="G37" s="25">
+        <v>2</v>
+      </c>
+      <c r="H37" s="25">
+        <v>2</v>
+      </c>
+      <c r="I37" s="25">
         <v>3</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="25">
         <v>14</v>
       </c>
-      <c r="K37" s="31"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="24">
+      <c r="A38" s="23">
         <v>31</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="25">
         <v>6</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="25">
         <v>3</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="25">
         <v>4.5</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="26">
-        <v>4</v>
-      </c>
-      <c r="I38" s="26">
+      <c r="H38" s="25">
+        <v>4</v>
+      </c>
+      <c r="I38" s="25">
         <v>3</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="25">
         <v>14.5</v>
       </c>
-      <c r="K38" s="31"/>
+      <c r="K38" s="30"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="24">
+      <c r="A39" s="23">
         <v>32</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="25">
         <v>3</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="25">
         <v>4.5</v>
       </c>
-      <c r="F39" s="26">
-        <v>4</v>
-      </c>
-      <c r="G39" s="26">
+      <c r="F39" s="25">
+        <v>4</v>
+      </c>
+      <c r="G39" s="25">
         <v>3</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="25">
         <v>1</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="25">
         <v>3.5</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="25">
         <v>16</v>
       </c>
-      <c r="K39" s="31"/>
+      <c r="K39" s="30"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="24">
+      <c r="A40" s="23">
         <v>33</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="25">
         <v>3</v>
       </c>
-      <c r="E40" s="26">
-        <v>5</v>
-      </c>
-      <c r="F40" s="26">
+      <c r="E40" s="25">
+        <v>5</v>
+      </c>
+      <c r="F40" s="25">
         <v>3</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="25">
         <v>3</v>
       </c>
-      <c r="H40" s="26">
-        <v>4</v>
-      </c>
-      <c r="I40" s="26">
-        <v>5</v>
-      </c>
-      <c r="J40" s="26">
+      <c r="H40" s="25">
+        <v>4</v>
+      </c>
+      <c r="I40" s="25">
+        <v>5</v>
+      </c>
+      <c r="J40" s="25">
         <v>20</v>
       </c>
-      <c r="K40" s="31"/>
+      <c r="K40" s="30"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="24">
+      <c r="A41" s="23">
         <v>34</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="25">
         <v>1</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="25">
         <v>2.5</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="25">
         <v>3</v>
       </c>
-      <c r="G41" s="26">
-        <v>4</v>
-      </c>
-      <c r="H41" s="26">
-        <v>4</v>
-      </c>
-      <c r="I41" s="26">
+      <c r="G41" s="25">
+        <v>4</v>
+      </c>
+      <c r="H41" s="25">
+        <v>4</v>
+      </c>
+      <c r="I41" s="25">
         <v>3</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="25">
         <v>16.5</v>
       </c>
-      <c r="K41" s="31"/>
+      <c r="K41" s="30"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="24">
+      <c r="A42" s="23">
         <v>35</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="26">
-        <v>5</v>
-      </c>
-      <c r="E42" s="26">
-        <v>5</v>
-      </c>
-      <c r="F42" s="26">
+      <c r="D42" s="25">
+        <v>5</v>
+      </c>
+      <c r="E42" s="25">
+        <v>5</v>
+      </c>
+      <c r="F42" s="25">
         <v>3.5</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <v>4.5</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="25">
         <v>4.5</v>
       </c>
-      <c r="I42" s="26">
-        <v>5</v>
-      </c>
-      <c r="J42" s="26">
+      <c r="I42" s="25">
+        <v>5</v>
+      </c>
+      <c r="J42" s="25">
         <v>22.5</v>
       </c>
-      <c r="K42" s="31"/>
+      <c r="K42" s="30"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="24">
+      <c r="A43" s="23">
         <v>36</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="25">
         <v>6</v>
       </c>
-      <c r="E43" s="26">
-        <v>2</v>
-      </c>
-      <c r="F43" s="26">
+      <c r="E43" s="25">
+        <v>2</v>
+      </c>
+      <c r="F43" s="25">
         <v>3.5</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="25">
         <v>3</v>
       </c>
-      <c r="H43" s="26">
-        <v>2</v>
-      </c>
-      <c r="I43" s="26">
-        <v>2</v>
-      </c>
-      <c r="J43" s="26">
+      <c r="H43" s="25">
+        <v>2</v>
+      </c>
+      <c r="I43" s="25">
+        <v>2</v>
+      </c>
+      <c r="J43" s="25">
         <v>12.5</v>
       </c>
-      <c r="K43" s="31"/>
+      <c r="K43" s="30"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="24">
+      <c r="A44" s="23">
         <v>37</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="25">
         <v>6</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="25">
         <v>3</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="25">
         <v>3</v>
       </c>
-      <c r="G44" s="26">
-        <v>2</v>
-      </c>
-      <c r="H44" s="26">
+      <c r="G44" s="25">
+        <v>2</v>
+      </c>
+      <c r="H44" s="25">
         <v>3.5</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="25">
         <v>2.5</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="25">
         <v>14</v>
       </c>
-      <c r="K44" s="31"/>
+      <c r="K44" s="30"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="24">
+      <c r="A45" s="23">
         <v>38</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="25">
         <v>3</v>
       </c>
-      <c r="E45" s="26">
-        <v>4</v>
-      </c>
-      <c r="F45" s="26">
+      <c r="E45" s="25">
+        <v>4</v>
+      </c>
+      <c r="F45" s="25">
         <v>2.5</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>1</v>
       </c>
-      <c r="H45" s="26">
-        <v>5</v>
-      </c>
-      <c r="I45" s="26">
+      <c r="H45" s="25">
+        <v>5</v>
+      </c>
+      <c r="I45" s="25">
         <v>1.5</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="25">
         <v>14</v>
       </c>
-      <c r="K45" s="31"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="24">
+      <c r="A46" s="23">
         <v>39</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="26">
-        <v>4</v>
-      </c>
-      <c r="E46" s="26">
-        <v>5</v>
-      </c>
-      <c r="F46" s="26">
-        <v>2</v>
-      </c>
-      <c r="G46" s="26">
+      <c r="D46" s="25">
+        <v>4</v>
+      </c>
+      <c r="E46" s="25">
+        <v>5</v>
+      </c>
+      <c r="F46" s="25">
+        <v>2</v>
+      </c>
+      <c r="G46" s="25">
         <v>1</v>
       </c>
-      <c r="H46" s="26">
-        <v>4</v>
-      </c>
-      <c r="I46" s="26">
-        <v>4</v>
-      </c>
-      <c r="J46" s="26">
+      <c r="H46" s="25">
+        <v>4</v>
+      </c>
+      <c r="I46" s="25">
+        <v>4</v>
+      </c>
+      <c r="J46" s="25">
         <v>16</v>
       </c>
-      <c r="K46" s="31"/>
+      <c r="K46" s="30"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="24">
+      <c r="A47" s="23">
         <v>40</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="25">
         <v>3</v>
       </c>
-      <c r="E47" s="26">
-        <v>2</v>
-      </c>
-      <c r="F47" s="26">
-        <v>2</v>
-      </c>
-      <c r="G47" s="26">
+      <c r="E47" s="25">
+        <v>2</v>
+      </c>
+      <c r="F47" s="25">
+        <v>2</v>
+      </c>
+      <c r="G47" s="25">
         <v>1.5</v>
       </c>
-      <c r="H47" s="26">
-        <v>2</v>
-      </c>
-      <c r="I47" s="26">
+      <c r="H47" s="25">
+        <v>2</v>
+      </c>
+      <c r="I47" s="25">
         <v>3.5</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="25">
         <v>11</v>
       </c>
-      <c r="K47" s="31"/>
+      <c r="K47" s="30"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="24">
+      <c r="A48" s="23">
         <v>41</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="25">
         <v>3</v>
       </c>
-      <c r="E48" s="26">
-        <v>5</v>
-      </c>
-      <c r="F48" s="26">
+      <c r="E48" s="25">
+        <v>5</v>
+      </c>
+      <c r="F48" s="25">
         <v>3.5</v>
       </c>
-      <c r="G48" s="26">
-        <v>5</v>
-      </c>
-      <c r="H48" s="26">
+      <c r="G48" s="25">
+        <v>5</v>
+      </c>
+      <c r="H48" s="25">
         <v>3.5</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="25">
         <v>4.5</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="25">
         <v>21.5</v>
       </c>
-      <c r="K48" s="31"/>
+      <c r="K48" s="30"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="24">
+      <c r="A49" s="23">
         <v>42</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="26">
-        <v>2</v>
-      </c>
-      <c r="E49" s="26">
-        <v>5</v>
-      </c>
-      <c r="F49" s="26">
-        <v>5</v>
-      </c>
-      <c r="G49" s="26">
-        <v>5</v>
-      </c>
-      <c r="H49" s="26">
+      <c r="D49" s="25">
+        <v>2</v>
+      </c>
+      <c r="E49" s="25">
+        <v>5</v>
+      </c>
+      <c r="F49" s="25">
+        <v>5</v>
+      </c>
+      <c r="G49" s="25">
+        <v>5</v>
+      </c>
+      <c r="H49" s="25">
         <v>4.5</v>
       </c>
-      <c r="I49" s="26">
-        <v>5</v>
-      </c>
-      <c r="J49" s="26">
+      <c r="I49" s="25">
+        <v>5</v>
+      </c>
+      <c r="J49" s="25">
         <v>24.5</v>
       </c>
-      <c r="K49" s="31"/>
+      <c r="K49" s="30"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="24">
+      <c r="A50" s="23">
         <v>43</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="25">
         <v>1</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="25">
         <v>3.5</v>
       </c>
-      <c r="F50" s="26">
-        <v>5</v>
-      </c>
-      <c r="G50" s="26">
+      <c r="F50" s="25">
+        <v>5</v>
+      </c>
+      <c r="G50" s="25">
         <v>3.5</v>
       </c>
-      <c r="H50" s="26">
-        <v>5</v>
-      </c>
-      <c r="I50" s="26">
+      <c r="H50" s="25">
+        <v>5</v>
+      </c>
+      <c r="I50" s="25">
         <v>3</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="25">
         <v>20</v>
       </c>
-      <c r="K50" s="31"/>
+      <c r="K50" s="30"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="24">
+      <c r="A51" s="23">
         <v>44</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="25">
         <v>6</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="25">
         <v>3</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="25">
         <v>3</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="25">
         <v>4.5</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="25">
         <v>2.5</v>
       </c>
-      <c r="I51" s="26">
-        <v>2</v>
-      </c>
-      <c r="J51" s="26">
+      <c r="I51" s="25">
+        <v>2</v>
+      </c>
+      <c r="J51" s="25">
         <v>15</v>
       </c>
-      <c r="K51" s="31"/>
+      <c r="K51" s="30"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="24">
+      <c r="A52" s="23">
         <v>45</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="26">
-        <v>5</v>
-      </c>
-      <c r="E52" s="26">
+      <c r="D52" s="25">
+        <v>5</v>
+      </c>
+      <c r="E52" s="25">
         <v>4.5</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F52" s="25">
         <v>0</v>
       </c>
-      <c r="G52" s="26">
-        <v>2</v>
-      </c>
-      <c r="H52" s="26">
+      <c r="G52" s="25">
+        <v>2</v>
+      </c>
+      <c r="H52" s="25">
         <v>2.5</v>
       </c>
-      <c r="I52" s="26">
-        <v>4</v>
-      </c>
-      <c r="J52" s="26">
+      <c r="I52" s="25">
+        <v>4</v>
+      </c>
+      <c r="J52" s="25">
         <v>13</v>
       </c>
-      <c r="K52" s="31"/>
+      <c r="K52" s="30"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="24">
+      <c r="A53" s="23">
         <v>46</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="25">
         <v>6</v>
       </c>
-      <c r="E53" s="26">
-        <v>4</v>
-      </c>
-      <c r="F53" s="26">
+      <c r="E53" s="25">
+        <v>4</v>
+      </c>
+      <c r="F53" s="25">
         <v>3</v>
       </c>
-      <c r="G53" s="26">
-        <v>4</v>
-      </c>
-      <c r="H53" s="26">
-        <v>4</v>
-      </c>
-      <c r="I53" s="26">
+      <c r="G53" s="25">
+        <v>4</v>
+      </c>
+      <c r="H53" s="25">
+        <v>4</v>
+      </c>
+      <c r="I53" s="25">
         <v>3.5</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J53" s="25">
         <v>18.5</v>
       </c>
-      <c r="K53" s="31"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="24">
+      <c r="A54" s="23">
         <v>47</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="26">
-        <v>5</v>
-      </c>
-      <c r="E54" s="26">
+      <c r="D54" s="25">
+        <v>5</v>
+      </c>
+      <c r="E54" s="25">
         <v>3.5</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="25">
         <v>3</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="25">
         <v>3</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="25">
         <v>3</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="25">
         <v>4.5</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="25">
         <v>17</v>
       </c>
-      <c r="K54" s="31"/>
+      <c r="K54" s="30"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="24">
+      <c r="A55" s="23">
         <v>48</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="25">
         <v>0</v>
       </c>
-      <c r="F55" s="26">
-        <v>2</v>
-      </c>
-      <c r="G55" s="26">
-        <v>5</v>
-      </c>
-      <c r="H55" s="26" t="s">
+      <c r="F55" s="25">
+        <v>2</v>
+      </c>
+      <c r="G55" s="25">
+        <v>5</v>
+      </c>
+      <c r="H55" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I55" s="25">
         <v>2.5</v>
       </c>
-      <c r="J55" s="26">
+      <c r="J55" s="25">
         <v>9.5</v>
       </c>
-      <c r="K55" s="31"/>
+      <c r="K55" s="30"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="24">
+      <c r="A56" s="23">
         <v>49</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="25">
         <v>3</v>
       </c>
-      <c r="E56" s="26">
-        <v>5</v>
-      </c>
-      <c r="F56" s="26">
-        <v>4</v>
-      </c>
-      <c r="G56" s="26">
+      <c r="E56" s="25">
+        <v>5</v>
+      </c>
+      <c r="F56" s="25">
+        <v>4</v>
+      </c>
+      <c r="G56" s="25">
         <v>2.5</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H56" s="25">
         <v>4.5</v>
       </c>
-      <c r="I56" s="26">
+      <c r="I56" s="25">
         <v>3</v>
       </c>
-      <c r="J56" s="26">
+      <c r="J56" s="25">
         <v>19</v>
       </c>
-      <c r="K56" s="31"/>
+      <c r="K56" s="30"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="24">
+      <c r="A57" s="23">
         <v>50</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="25">
         <v>1</v>
       </c>
-      <c r="E57" s="26">
-        <v>4</v>
-      </c>
-      <c r="F57" s="26">
+      <c r="E57" s="25">
+        <v>4</v>
+      </c>
+      <c r="F57" s="25">
         <v>3</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="25">
         <v>4.5</v>
       </c>
-      <c r="H57" s="26">
-        <v>5</v>
-      </c>
-      <c r="I57" s="26">
+      <c r="H57" s="25">
+        <v>5</v>
+      </c>
+      <c r="I57" s="25">
         <v>3.5</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="25">
         <v>20</v>
       </c>
-      <c r="K57" s="31"/>
+      <c r="K57" s="30"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="26">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="25">
         <v>0</v>
       </c>
-      <c r="K58" s="32"/>
+      <c r="K58" s="31"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="24">
+      <c r="A59" s="23">
         <v>51</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="26">
-        <v>2</v>
-      </c>
-      <c r="E59" s="26">
+      <c r="D59" s="25">
+        <v>2</v>
+      </c>
+      <c r="E59" s="25">
         <v>2.5</v>
       </c>
-      <c r="F59" s="26">
-        <v>4</v>
-      </c>
-      <c r="G59" s="26">
-        <v>2</v>
-      </c>
-      <c r="H59" s="26">
+      <c r="F59" s="25">
+        <v>4</v>
+      </c>
+      <c r="G59" s="25">
+        <v>2</v>
+      </c>
+      <c r="H59" s="25">
         <v>1</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="25">
         <v>3.5</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="25">
         <v>13</v>
       </c>
-      <c r="K59" s="31"/>
+      <c r="K59" s="30"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="24">
+      <c r="A60" s="23">
         <v>52</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="25">
         <v>6</v>
       </c>
-      <c r="E60" s="26">
-        <v>4</v>
-      </c>
-      <c r="F60" s="26">
+      <c r="E60" s="25">
+        <v>4</v>
+      </c>
+      <c r="F60" s="25">
         <v>4.5</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="25">
         <v>3</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="25">
         <v>4.5</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="25">
         <v>4.5</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="25">
         <v>20.5</v>
       </c>
-      <c r="K60" s="31"/>
+      <c r="K60" s="30"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="24">
+      <c r="A61" s="23">
         <v>53</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="26">
-        <v>4</v>
-      </c>
-      <c r="E61" s="26">
+      <c r="D61" s="25">
+        <v>4</v>
+      </c>
+      <c r="E61" s="25">
         <v>3</v>
       </c>
-      <c r="F61" s="26">
-        <v>5</v>
-      </c>
-      <c r="G61" s="26">
+      <c r="F61" s="25">
+        <v>5</v>
+      </c>
+      <c r="G61" s="25">
         <v>0</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="25">
         <v>3</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="25">
         <v>0</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="25">
         <v>11</v>
       </c>
-      <c r="K61" s="31"/>
+      <c r="K61" s="30"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="24">
+      <c r="A62" s="23">
         <v>54</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="25">
         <v>1</v>
       </c>
-      <c r="E62" s="26">
-        <v>5</v>
-      </c>
-      <c r="F62" s="26">
-        <v>5</v>
-      </c>
-      <c r="G62" s="26">
+      <c r="E62" s="25">
+        <v>5</v>
+      </c>
+      <c r="F62" s="25">
+        <v>5</v>
+      </c>
+      <c r="G62" s="25">
         <v>3</v>
       </c>
-      <c r="H62" s="26">
+      <c r="H62" s="25">
         <v>4.5</v>
       </c>
-      <c r="I62" s="26">
+      <c r="I62" s="25">
         <v>3</v>
       </c>
-      <c r="J62" s="26">
+      <c r="J62" s="25">
         <v>20.5</v>
       </c>
-      <c r="K62" s="31"/>
+      <c r="K62" s="30"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="24">
+      <c r="A63" s="23">
         <v>55</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="26">
-        <v>4</v>
-      </c>
-      <c r="E63" s="26">
-        <v>4</v>
-      </c>
-      <c r="F63" s="26">
-        <v>4</v>
-      </c>
-      <c r="G63" s="26">
-        <v>5</v>
-      </c>
-      <c r="H63" s="26">
-        <v>5</v>
-      </c>
-      <c r="I63" s="26">
+      <c r="D63" s="25">
+        <v>4</v>
+      </c>
+      <c r="E63" s="25">
+        <v>4</v>
+      </c>
+      <c r="F63" s="25">
+        <v>4</v>
+      </c>
+      <c r="G63" s="25">
+        <v>5</v>
+      </c>
+      <c r="H63" s="25">
+        <v>5</v>
+      </c>
+      <c r="I63" s="25">
         <v>4.5</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J63" s="25">
         <v>22.5</v>
       </c>
-      <c r="K63" s="31"/>
+      <c r="K63" s="30"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="24">
+      <c r="A64" s="23">
         <v>56</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="26">
-        <v>4</v>
-      </c>
-      <c r="E64" s="26">
-        <v>5</v>
-      </c>
-      <c r="F64" s="26">
-        <v>2</v>
-      </c>
-      <c r="G64" s="26">
-        <v>5</v>
-      </c>
-      <c r="H64" s="26">
-        <v>5</v>
-      </c>
-      <c r="I64" s="26">
+      <c r="D64" s="25">
+        <v>4</v>
+      </c>
+      <c r="E64" s="25">
+        <v>5</v>
+      </c>
+      <c r="F64" s="25">
+        <v>2</v>
+      </c>
+      <c r="G64" s="25">
+        <v>5</v>
+      </c>
+      <c r="H64" s="25">
+        <v>5</v>
+      </c>
+      <c r="I64" s="25">
         <v>4.5</v>
       </c>
-      <c r="J64" s="26">
+      <c r="J64" s="25">
         <v>21.5</v>
       </c>
-      <c r="K64" s="31"/>
+      <c r="K64" s="30"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="24">
+      <c r="A65" s="23">
         <v>57</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="25">
         <v>3</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="25">
         <v>4.5</v>
       </c>
-      <c r="F65" s="26">
+      <c r="F65" s="25">
         <v>4.5</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I65" s="26">
+      <c r="I65" s="25">
         <v>2.5</v>
       </c>
-      <c r="J65" s="26">
+      <c r="J65" s="25">
         <v>11.5</v>
       </c>
-      <c r="K65" s="31"/>
+      <c r="K65" s="30"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="24">
+      <c r="A66" s="23">
         <v>58</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="26">
-        <v>4</v>
-      </c>
-      <c r="E66" s="26">
+      <c r="D66" s="25">
+        <v>4</v>
+      </c>
+      <c r="E66" s="25">
         <v>2.5</v>
       </c>
-      <c r="F66" s="26">
+      <c r="F66" s="25">
         <v>3</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G66" s="25">
         <v>3</v>
       </c>
-      <c r="H66" s="26">
-        <v>4</v>
-      </c>
-      <c r="I66" s="26">
+      <c r="H66" s="25">
+        <v>4</v>
+      </c>
+      <c r="I66" s="25">
         <v>3.5</v>
       </c>
-      <c r="J66" s="26">
+      <c r="J66" s="25">
         <v>16</v>
       </c>
-      <c r="K66" s="31"/>
+      <c r="K66" s="30"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="24">
+      <c r="A67" s="23">
         <v>59</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="25">
         <v>3</v>
       </c>
-      <c r="E67" s="26">
-        <v>4</v>
-      </c>
-      <c r="F67" s="26">
+      <c r="E67" s="25">
+        <v>4</v>
+      </c>
+      <c r="F67" s="25">
         <v>2.5</v>
       </c>
-      <c r="G67" s="26">
+      <c r="G67" s="25">
         <v>4.5</v>
       </c>
-      <c r="H67" s="26">
-        <v>5</v>
-      </c>
-      <c r="I67" s="26">
-        <v>4</v>
-      </c>
-      <c r="J67" s="26">
+      <c r="H67" s="25">
+        <v>5</v>
+      </c>
+      <c r="I67" s="25">
+        <v>4</v>
+      </c>
+      <c r="J67" s="25">
         <v>20</v>
       </c>
-      <c r="K67" s="31"/>
+      <c r="K67" s="30"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="24">
+      <c r="A68" s="23">
         <v>60</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="26">
-        <v>2</v>
-      </c>
-      <c r="E68" s="26">
-        <v>5</v>
-      </c>
-      <c r="F68" s="26">
-        <v>5</v>
-      </c>
-      <c r="G68" s="26">
-        <v>4</v>
-      </c>
-      <c r="H68" s="26">
-        <v>5</v>
-      </c>
-      <c r="I68" s="26">
-        <v>5</v>
-      </c>
-      <c r="J68" s="26">
+      <c r="D68" s="25">
+        <v>2</v>
+      </c>
+      <c r="E68" s="25">
+        <v>5</v>
+      </c>
+      <c r="F68" s="25">
+        <v>5</v>
+      </c>
+      <c r="G68" s="25">
+        <v>4</v>
+      </c>
+      <c r="H68" s="25">
+        <v>5</v>
+      </c>
+      <c r="I68" s="25">
+        <v>5</v>
+      </c>
+      <c r="J68" s="25">
         <v>24</v>
       </c>
-      <c r="K68" s="31"/>
+      <c r="K68" s="30"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="24">
+      <c r="A69" s="23">
         <v>61</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="25">
         <v>3</v>
       </c>
-      <c r="E69" s="26">
+      <c r="E69" s="25">
         <v>2.5</v>
       </c>
-      <c r="F69" s="26">
+      <c r="F69" s="25">
         <v>3</v>
       </c>
-      <c r="G69" s="26">
+      <c r="G69" s="25">
         <v>1</v>
       </c>
-      <c r="H69" s="26">
-        <v>4</v>
-      </c>
-      <c r="I69" s="26">
-        <v>4</v>
-      </c>
-      <c r="J69" s="26">
+      <c r="H69" s="25">
+        <v>4</v>
+      </c>
+      <c r="I69" s="25">
+        <v>4</v>
+      </c>
+      <c r="J69" s="25">
         <v>14.5</v>
       </c>
-      <c r="K69" s="31"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="24">
+      <c r="A70" s="23">
         <v>62</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="26">
-        <v>4</v>
-      </c>
-      <c r="E70" s="26">
-        <v>4</v>
-      </c>
-      <c r="F70" s="26">
+      <c r="D70" s="25">
+        <v>4</v>
+      </c>
+      <c r="E70" s="25">
+        <v>4</v>
+      </c>
+      <c r="F70" s="25">
         <v>4.5</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G70" s="25">
         <v>4.5</v>
       </c>
-      <c r="H70" s="26">
-        <v>5</v>
-      </c>
-      <c r="I70" s="26">
-        <v>5</v>
-      </c>
-      <c r="J70" s="26">
+      <c r="H70" s="25">
+        <v>5</v>
+      </c>
+      <c r="I70" s="25">
+        <v>5</v>
+      </c>
+      <c r="J70" s="25">
         <v>23</v>
       </c>
-      <c r="K70" s="31"/>
+      <c r="K70" s="30"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="24">
+      <c r="A71" s="23">
         <v>63</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D71" s="26">
-        <v>2</v>
-      </c>
-      <c r="E71" s="26">
-        <v>5</v>
-      </c>
-      <c r="F71" s="26">
+      <c r="D71" s="25">
+        <v>2</v>
+      </c>
+      <c r="E71" s="25">
+        <v>5</v>
+      </c>
+      <c r="F71" s="25">
         <v>3</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G71" s="25">
         <v>3</v>
       </c>
-      <c r="H71" s="26">
+      <c r="H71" s="25">
         <v>3</v>
       </c>
-      <c r="I71" s="26">
+      <c r="I71" s="25">
         <v>4.5</v>
       </c>
-      <c r="J71" s="26">
+      <c r="J71" s="25">
         <v>18.5</v>
       </c>
-      <c r="K71" s="31"/>
+      <c r="K71" s="30"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="24">
+      <c r="A72" s="23">
         <v>64</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="26">
-        <v>4</v>
-      </c>
-      <c r="E72" s="26">
+      <c r="D72" s="25">
+        <v>4</v>
+      </c>
+      <c r="E72" s="25">
         <v>2.5</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F72" s="25">
         <v>1.5</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="26">
-        <v>2</v>
-      </c>
-      <c r="I72" s="26">
+      <c r="H72" s="25">
+        <v>2</v>
+      </c>
+      <c r="I72" s="25">
         <v>1.5</v>
       </c>
-      <c r="J72" s="26">
+      <c r="J72" s="25">
         <v>7.5</v>
       </c>
-      <c r="K72" s="31"/>
+      <c r="K72" s="30"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="24">
+      <c r="A73" s="23">
         <v>65</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="26">
-        <v>4</v>
-      </c>
-      <c r="E73" s="26">
+      <c r="D73" s="25">
+        <v>4</v>
+      </c>
+      <c r="E73" s="25">
         <v>1</v>
       </c>
-      <c r="F73" s="26">
+      <c r="F73" s="25">
         <v>3.5</v>
       </c>
-      <c r="G73" s="26">
-        <v>5</v>
-      </c>
-      <c r="H73" s="26">
-        <v>4</v>
-      </c>
-      <c r="I73" s="26">
-        <v>5</v>
-      </c>
-      <c r="J73" s="26">
+      <c r="G73" s="25">
+        <v>5</v>
+      </c>
+      <c r="H73" s="25">
+        <v>4</v>
+      </c>
+      <c r="I73" s="25">
+        <v>5</v>
+      </c>
+      <c r="J73" s="25">
         <v>18.5</v>
       </c>
-      <c r="K73" s="31"/>
+      <c r="K73" s="30"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="24">
+      <c r="A74" s="23">
         <v>66</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="26">
-        <v>2</v>
-      </c>
-      <c r="E74" s="26">
-        <v>5</v>
-      </c>
-      <c r="F74" s="26">
-        <v>4</v>
-      </c>
-      <c r="G74" s="26">
+      <c r="D74" s="25">
+        <v>2</v>
+      </c>
+      <c r="E74" s="25">
+        <v>5</v>
+      </c>
+      <c r="F74" s="25">
+        <v>4</v>
+      </c>
+      <c r="G74" s="25">
         <v>3</v>
       </c>
-      <c r="H74" s="26">
-        <v>4</v>
-      </c>
-      <c r="I74" s="26" t="s">
+      <c r="H74" s="25">
+        <v>4</v>
+      </c>
+      <c r="I74" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="J74" s="26">
+      <c r="J74" s="25">
         <v>16</v>
       </c>
-      <c r="K74" s="31"/>
+      <c r="K74" s="30"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="24">
+      <c r="A75" s="23">
         <v>67</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="26">
-        <v>4</v>
-      </c>
-      <c r="E75" s="26">
-        <v>2</v>
-      </c>
-      <c r="F75" s="26">
+      <c r="D75" s="25">
+        <v>4</v>
+      </c>
+      <c r="E75" s="25">
+        <v>2</v>
+      </c>
+      <c r="F75" s="25">
         <v>3</v>
       </c>
-      <c r="G75" s="26">
-        <v>2</v>
-      </c>
-      <c r="H75" s="26" t="s">
+      <c r="G75" s="25">
+        <v>2</v>
+      </c>
+      <c r="H75" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I75" s="26">
+      <c r="I75" s="25">
         <v>3</v>
       </c>
-      <c r="J75" s="26">
-        <v>10</v>
-      </c>
-      <c r="K75" s="31"/>
+      <c r="J75" s="25">
+        <v>10</v>
+      </c>
+      <c r="K75" s="30"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="24">
+      <c r="A76" s="23">
         <v>68</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="26">
-        <v>2</v>
-      </c>
-      <c r="E76" s="26">
-        <v>4</v>
-      </c>
-      <c r="F76" s="26">
-        <v>4</v>
-      </c>
-      <c r="G76" s="26">
-        <v>5</v>
-      </c>
-      <c r="H76" s="26">
+      <c r="D76" s="25">
+        <v>2</v>
+      </c>
+      <c r="E76" s="25">
+        <v>4</v>
+      </c>
+      <c r="F76" s="25">
+        <v>4</v>
+      </c>
+      <c r="G76" s="25">
+        <v>5</v>
+      </c>
+      <c r="H76" s="25">
         <v>1</v>
       </c>
-      <c r="I76" s="26">
+      <c r="I76" s="25">
         <v>4.5</v>
       </c>
-      <c r="J76" s="26">
+      <c r="J76" s="25">
         <v>18.5</v>
       </c>
-      <c r="K76" s="31"/>
+      <c r="K76" s="30"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="24">
+      <c r="A77" s="23">
         <v>69</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="25">
         <v>6</v>
       </c>
-      <c r="E77" s="26">
-        <v>4</v>
-      </c>
-      <c r="F77" s="26">
+      <c r="E77" s="25">
+        <v>4</v>
+      </c>
+      <c r="F77" s="25">
         <v>4.5</v>
       </c>
-      <c r="G77" s="26">
-        <v>4</v>
-      </c>
-      <c r="H77" s="26">
+      <c r="G77" s="25">
+        <v>4</v>
+      </c>
+      <c r="H77" s="25">
         <v>1</v>
       </c>
-      <c r="I77" s="26">
-        <v>2</v>
-      </c>
-      <c r="J77" s="26">
+      <c r="I77" s="25">
+        <v>2</v>
+      </c>
+      <c r="J77" s="25">
         <v>15.5</v>
       </c>
-      <c r="K77" s="31"/>
+      <c r="K77" s="30"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="24">
+      <c r="A78" s="23">
         <v>70</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="25">
         <v>1</v>
       </c>
-      <c r="E78" s="26">
-        <v>4</v>
-      </c>
-      <c r="F78" s="26">
+      <c r="E78" s="25">
+        <v>4</v>
+      </c>
+      <c r="F78" s="25">
         <v>3.5</v>
       </c>
-      <c r="G78" s="26">
+      <c r="G78" s="25">
         <v>3.5</v>
       </c>
-      <c r="H78" s="26">
+      <c r="H78" s="25">
         <v>4.5</v>
       </c>
-      <c r="I78" s="26">
+      <c r="I78" s="25">
         <v>2.5</v>
       </c>
-      <c r="J78" s="26">
+      <c r="J78" s="25">
         <v>18</v>
       </c>
-      <c r="K78" s="31"/>
+      <c r="K78" s="30"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="24">
+      <c r="A79" s="23">
         <v>71</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="25">
         <v>0</v>
       </c>
-      <c r="E79" s="26">
+      <c r="E79" s="25">
         <v>0</v>
       </c>
-      <c r="F79" s="26">
+      <c r="F79" s="25">
         <v>1.5</v>
       </c>
-      <c r="G79" s="26">
-        <v>4</v>
-      </c>
-      <c r="H79" s="26">
+      <c r="G79" s="25">
+        <v>4</v>
+      </c>
+      <c r="H79" s="25">
         <v>3</v>
       </c>
-      <c r="I79" s="26">
-        <v>2</v>
-      </c>
-      <c r="J79" s="26">
+      <c r="I79" s="25">
+        <v>2</v>
+      </c>
+      <c r="J79" s="25">
         <v>10.5</v>
       </c>
-      <c r="K79" s="31"/>
+      <c r="K79" s="30"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="24">
+      <c r="A80" s="23">
         <v>72</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D80" s="26">
-        <v>2</v>
-      </c>
-      <c r="E80" s="26">
-        <v>5</v>
-      </c>
-      <c r="F80" s="26">
+      <c r="D80" s="25">
+        <v>2</v>
+      </c>
+      <c r="E80" s="25">
+        <v>5</v>
+      </c>
+      <c r="F80" s="25">
         <v>4.5</v>
       </c>
-      <c r="G80" s="26">
+      <c r="G80" s="25">
         <v>3</v>
       </c>
-      <c r="H80" s="26">
-        <v>5</v>
-      </c>
-      <c r="I80" s="26">
+      <c r="H80" s="25">
+        <v>5</v>
+      </c>
+      <c r="I80" s="25">
         <v>2.5</v>
       </c>
-      <c r="J80" s="26">
+      <c r="J80" s="25">
         <v>20</v>
       </c>
-      <c r="K80" s="31"/>
+      <c r="K80" s="30"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="24">
+      <c r="A81" s="23">
         <v>73</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D81" s="26">
-        <v>2</v>
-      </c>
-      <c r="E81" s="26">
-        <v>5</v>
-      </c>
-      <c r="F81" s="26">
+      <c r="D81" s="25">
+        <v>2</v>
+      </c>
+      <c r="E81" s="25">
+        <v>5</v>
+      </c>
+      <c r="F81" s="25">
         <v>2.5</v>
       </c>
-      <c r="G81" s="26">
+      <c r="G81" s="25">
         <v>0</v>
       </c>
-      <c r="H81" s="26">
+      <c r="H81" s="25">
         <v>4.5</v>
       </c>
-      <c r="I81" s="26">
+      <c r="I81" s="25">
         <v>3.5</v>
       </c>
-      <c r="J81" s="26">
+      <c r="J81" s="25">
         <v>15.5</v>
       </c>
-      <c r="K81" s="31"/>
+      <c r="K81" s="30"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="24">
+      <c r="A82" s="23">
         <v>74</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="26">
+      <c r="D82" s="25">
         <v>1</v>
       </c>
-      <c r="E82" s="26">
-        <v>5</v>
-      </c>
-      <c r="F82" s="26">
-        <v>5</v>
-      </c>
-      <c r="G82" s="26">
+      <c r="E82" s="25">
+        <v>5</v>
+      </c>
+      <c r="F82" s="25">
+        <v>5</v>
+      </c>
+      <c r="G82" s="25">
         <v>4.5</v>
       </c>
-      <c r="H82" s="26">
+      <c r="H82" s="25">
         <v>4.5</v>
       </c>
-      <c r="I82" s="26">
-        <v>2</v>
-      </c>
-      <c r="J82" s="26">
+      <c r="I82" s="25">
+        <v>2</v>
+      </c>
+      <c r="J82" s="25">
         <v>21</v>
       </c>
-      <c r="K82" s="31"/>
+      <c r="K82" s="30"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="24">
+      <c r="A83" s="23">
         <v>75</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="26">
-        <v>4</v>
-      </c>
-      <c r="E83" s="26">
+      <c r="D83" s="25">
+        <v>4</v>
+      </c>
+      <c r="E83" s="25">
         <v>1</v>
       </c>
-      <c r="F83" s="26">
-        <v>4</v>
-      </c>
-      <c r="G83" s="26">
+      <c r="F83" s="25">
+        <v>4</v>
+      </c>
+      <c r="G83" s="25">
         <v>3.5</v>
       </c>
-      <c r="H83" s="26">
+      <c r="H83" s="25">
         <v>3</v>
       </c>
-      <c r="I83" s="26">
-        <v>4</v>
-      </c>
-      <c r="J83" s="26">
+      <c r="I83" s="25">
+        <v>4</v>
+      </c>
+      <c r="J83" s="25">
         <v>15.5</v>
       </c>
-      <c r="K83" s="31"/>
+      <c r="K83" s="30"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="24">
+      <c r="A84" s="23">
         <v>76</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="26">
+      <c r="D84" s="25">
         <v>3</v>
       </c>
-      <c r="E84" s="26">
+      <c r="E84" s="25">
         <v>3.5</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F84" s="25">
         <v>3</v>
       </c>
-      <c r="G84" s="26">
+      <c r="G84" s="25">
         <v>2.5</v>
       </c>
-      <c r="H84" s="26">
+      <c r="H84" s="25">
         <v>4.5</v>
       </c>
-      <c r="I84" s="26">
-        <v>4</v>
-      </c>
-      <c r="J84" s="26">
+      <c r="I84" s="25">
+        <v>4</v>
+      </c>
+      <c r="J84" s="25">
         <v>17.5</v>
       </c>
-      <c r="K84" s="31"/>
+      <c r="K84" s="30"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="26">
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="25">
         <v>0</v>
       </c>
-      <c r="K85" s="36"/>
+      <c r="K85" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8679,8 +8644,8 @@
   <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -8974,7 +8939,9 @@
       <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10">
@@ -9092,7 +9059,9 @@
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="9"/>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="10">
@@ -9258,7 +9227,7 @@
       <c r="C44" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="9">
         <v>10</v>
       </c>
     </row>
@@ -9300,7 +9269,9 @@
       <c r="C47" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="9"/>
+      <c r="D47" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10">
@@ -9446,7 +9417,9 @@
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="10">
